--- a/Docs/Content/HungryDragonContent_SpawnPoints.xlsx
+++ b/Docs/Content/HungryDragonContent_SpawnPoints.xlsx
@@ -290,57 +290,6 @@
     <t>[triggerList]</t>
   </si>
   <si>
-    <t>zone_0</t>
-  </si>
-  <si>
-    <t>zone_1</t>
-  </si>
-  <si>
-    <t>zone_2</t>
-  </si>
-  <si>
-    <t>zone_3</t>
-  </si>
-  <si>
-    <t>zone_4</t>
-  </si>
-  <si>
-    <t>zone_5</t>
-  </si>
-  <si>
-    <t>zone_6</t>
-  </si>
-  <si>
-    <t>zone_7</t>
-  </si>
-  <si>
-    <t>zone_8</t>
-  </si>
-  <si>
-    <t>zone_9</t>
-  </si>
-  <si>
-    <t>zone_10</t>
-  </si>
-  <si>
-    <t>zone_11</t>
-  </si>
-  <si>
-    <t>zone_12</t>
-  </si>
-  <si>
-    <t>zone_13</t>
-  </si>
-  <si>
-    <t>zone_14</t>
-  </si>
-  <si>
-    <t>zone_15</t>
-  </si>
-  <si>
-    <t>zone_16</t>
-  </si>
-  <si>
     <t>The Beyond</t>
   </si>
   <si>
@@ -456,6 +405,57 @@
   </si>
   <si>
     <t>Trigger_Zone_Castle_Secret_01;Trigger_Zone_Castle_Secret_02;Trigger_Zone_Castle_Secret_03;Trigger_Zone_Castle_Secret_04;Trigger_Zone_Castle_Secret_05;Trigger_Zone_Castle_Secret_06;Trigger_Zone_Castle_Secret_07;Trigger_Zone_Village_Secret_01;Trigger_Zone_DarkCaves_Secret_01;Trigger_Zone_DarkCaves_Secret_02</t>
+  </si>
+  <si>
+    <t>zone_WitchTree</t>
+  </si>
+  <si>
+    <t>zone_ShadowCaves</t>
+  </si>
+  <si>
+    <t>zone_ShadowLake</t>
+  </si>
+  <si>
+    <t>zone_GoblinCity</t>
+  </si>
+  <si>
+    <t>zone_Cemetery</t>
+  </si>
+  <si>
+    <t>zone_CorkscrewCave</t>
+  </si>
+  <si>
+    <t>zone_OldVillage</t>
+  </si>
+  <si>
+    <t>zone_FrogFalls</t>
+  </si>
+  <si>
+    <t>zone_Ruins</t>
+  </si>
+  <si>
+    <t>zone_Beyond</t>
+  </si>
+  <si>
+    <t>zone_TrollForest</t>
+  </si>
+  <si>
+    <t>zone_CastleMarket</t>
+  </si>
+  <si>
+    <t>zone_GoblinCaves</t>
+  </si>
+  <si>
+    <t>zone_GoblinMines</t>
+  </si>
+  <si>
+    <t>zone_GoblinTunnels</t>
+  </si>
+  <si>
+    <t>zone_KingdomSpa</t>
+  </si>
+  <si>
+    <t>zone_SecretArea</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1215,8 @@
   </sheetPr>
   <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,16 +1600,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="E23" s="36" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1617,16 +1617,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1634,16 +1634,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,16 +1651,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,16 +1668,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,16 +1685,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,16 +1702,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,16 +1719,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1736,16 +1736,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1753,16 +1753,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1770,16 +1770,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1787,16 +1787,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1804,16 +1804,16 @@
         <v>1</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1821,16 +1821,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1838,16 +1838,16 @@
         <v>1</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1855,16 +1855,16 @@
         <v>1</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="D38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>125</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1872,16 +1872,16 @@
         <v>1</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="D39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="36" t="s">
         <v>126</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Docs/Content/HungryDragonContent_SpawnPoints.xlsx
+++ b/Docs/Content/HungryDragonContent_SpawnPoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="147">
   <si>
     <t>[sku]</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>zone_SecretArea</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1222,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J247"/>
+  <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1285,7 @@
         <v>79</v>
       </c>
       <c r="G5" s="7" t="str">
-        <f t="shared" ref="G5:G17" si="0">CONCATENATE("TID_SPAWN_POINT_",UPPER(C5),"_",UPPER(B5))</f>
+        <f t="shared" ref="G5:G16" si="0">CONCATENATE("TID_SPAWN_POINT_",UPPER(C5),"_",UPPER(B5))</f>
         <v>TID_SPAWN_POINT_AREA1_V0</v>
       </c>
     </row>
@@ -1564,86 +1573,107 @@
         <v>51</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("TID_SPAWN_POINT_",UPPER(C17),"_",UPPER(B17))</f>
         <v>TID_SPAWN_POINT_AREA3_D2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f t="shared" ref="G18" si="1">CONCATENATE("TID_SPAWN_POINT_",UPPER(C18),"_",UPPER(B18))</f>
+        <v>TID_SPAWN_POINT_AREA1_S1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f t="shared" ref="G19" si="2">CONCATENATE("TID_SPAWN_POINT_",UPPER(C19),"_",UPPER(B19))</f>
+        <v>TID_SPAWN_POINT_AREA2_S2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f t="shared" ref="G20" si="3">CONCATENATE("TID_SPAWN_POINT_",UPPER(C20),"_",UPPER(B20))</f>
+        <v>TID_SPAWN_POINT_AREA3_S3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="125.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="125.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E25" s="35" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,16 +1681,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,16 +1698,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,16 +1715,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,16 +1732,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,16 +1749,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1736,16 +1766,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1753,5460 +1783,5469 @@
         <v>1</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E35" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E36" s="36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E37" s="36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E38" s="36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E40" s="36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E41" s="36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E42" s="36" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="45" spans="1:10" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="31" t="s">
+      <c r="B48" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D48" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E48" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F48" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G48" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C46,5,1,""),"_",D46,"_default")</f>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C49,5,1,""),"_",D49,"_default")</f>
         <v>sp_tier0_v0_default</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C49" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D49" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="23">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="E49" s="23">
+        <v>0</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0</v>
+      </c>
+      <c r="G49" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
         <v>19</v>
       </c>
-      <c r="I46">
+      <c r="I49">
         <v>3000</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J49" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C47,5,1,""),"_",D47,"_easy")</f>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C50,5,1,""),"_",D50,"_easy")</f>
         <v>sp_tier0_v1_easy</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D50" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="19">
-        <v>0</v>
-      </c>
-      <c r="F47" s="19">
-        <v>0</v>
-      </c>
-      <c r="G47" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0</v>
+      </c>
+      <c r="G50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>16</v>
       </c>
-      <c r="I47">
+      <c r="I50">
         <v>15000</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C48,5,1,""),"_",D47,"_medium")</f>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C51,5,1,""),"_",D50,"_medium")</f>
         <v>sp_tier0_v1_medium</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C51" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D51" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E51" s="19">
         <v>3000</v>
       </c>
-      <c r="F48" s="19">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="F51" s="19">
+        <v>0</v>
+      </c>
+      <c r="G51" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
         <v>14</v>
       </c>
-      <c r="I48">
+      <c r="I51">
         <v>30000</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C49,5,1,""),"_",D47,"_hard")</f>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C52,5,1,""),"_",D50,"_hard")</f>
         <v>sp_tier0_v1_hard</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C52" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D52" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E52" s="19">
         <v>10000</v>
       </c>
-      <c r="F49" s="19">
-        <v>0</v>
-      </c>
-      <c r="G49" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="F52" s="19">
+        <v>0</v>
+      </c>
+      <c r="G52" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
         <v>12</v>
       </c>
-      <c r="I49">
+      <c r="I52">
         <v>40000</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C50,5,1,""),"_",D50,"_easy")</f>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C53,5,1,""),"_",D53,"_easy")</f>
         <v>sp_tier0_v2_easy</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="14">
-        <v>0</v>
-      </c>
-      <c r="F50" s="14">
-        <v>0</v>
-      </c>
-      <c r="G50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
         <v>10</v>
       </c>
-      <c r="I50">
+      <c r="I53">
         <v>5000</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C51,5,1,""),"_",D50,"_medium")</f>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C54,5,1,""),"_",D53,"_medium")</f>
         <v>sp_tier0_v2_medium</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E54" s="14">
         <v>3000</v>
       </c>
-      <c r="F51" s="14">
-        <v>0</v>
-      </c>
-      <c r="G51" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
         <v>22</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I54" t="s">
         <v>7</v>
       </c>
-      <c r="J51">
+      <c r="J54">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C52,5,1,""),"_",D50,"_hard")</f>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C55,5,1,""),"_",D53,"_hard")</f>
         <v>sp_tier0_v2_hard</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E55" s="14">
         <v>10000</v>
       </c>
-      <c r="F52" s="14">
-        <v>0</v>
-      </c>
-      <c r="G52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+      <c r="G55" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
         <v>6</v>
       </c>
-      <c r="J52">
+      <c r="J55">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C53,5,1,""),"_",D53,"_default")</f>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C56,5,1,""),"_",D56,"_default")</f>
         <v>sp_tier1_v0_default</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C56" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D56" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="E56" s="23">
+        <v>0</v>
+      </c>
+      <c r="F56" s="23">
+        <v>0</v>
+      </c>
+      <c r="G56" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
         <v>5</v>
       </c>
-      <c r="J53">
+      <c r="J56">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C54,5,1,""),"_",D54,"_easy")</f>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C57,5,1,""),"_",D57,"_easy")</f>
         <v>sp_tier1_v1_easy</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D57" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="19">
-        <v>0</v>
-      </c>
-      <c r="F54" s="19">
-        <v>0</v>
-      </c>
-      <c r="G54" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="E57" s="19">
+        <v>0</v>
+      </c>
+      <c r="F57" s="19">
+        <v>0</v>
+      </c>
+      <c r="G57" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
         <v>4</v>
       </c>
-      <c r="J54">
+      <c r="J57">
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C55,5,1,""),"_",D54,"_medium")</f>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C58,5,1,""),"_",D57,"_medium")</f>
         <v>sp_tier1_v1_medium</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D58" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E58" s="19">
         <v>3000</v>
       </c>
-      <c r="F55" s="19">
-        <v>0</v>
-      </c>
-      <c r="G55" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="F58" s="19">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
         <v>32</v>
       </c>
-      <c r="I55">
+      <c r="I58">
         <v>2500</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C56,5,1,""),"_",D54,"_hard")</f>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C59,5,1,""),"_",D57,"_hard")</f>
         <v>sp_tier1_v1_hard</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D59" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E59" s="19">
         <v>10000</v>
       </c>
-      <c r="F56" s="19">
-        <v>0</v>
-      </c>
-      <c r="G56" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="F59" s="19">
+        <v>0</v>
+      </c>
+      <c r="G59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
         <v>17</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I59" t="s">
         <v>7</v>
       </c>
-      <c r="J56">
+      <c r="J59">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C57,5,1,""),"_",D57,"_easy")</f>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C60,5,1,""),"_",D60,"_easy")</f>
         <v>sp_tier1_v2_easy</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D60" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="14">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14">
-        <v>0</v>
-      </c>
-      <c r="G57" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="E60" s="14">
+        <v>0</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0</v>
+      </c>
+      <c r="G60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
         <v>6</v>
       </c>
-      <c r="J57">
+      <c r="J60">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C58,5,1,""),"_",D57,"_medium")</f>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C61,5,1,""),"_",D60,"_medium")</f>
         <v>sp_tier1_v2_medium</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D61" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E61" s="14">
         <v>3000</v>
       </c>
-      <c r="F58" s="14">
-        <v>0</v>
-      </c>
-      <c r="G58" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="F61" s="14">
+        <v>0</v>
+      </c>
+      <c r="G61" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>5</v>
       </c>
-      <c r="J58">
+      <c r="J61">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C59,5,1,""),"_",D57,"_hard")</f>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C62,5,1,""),"_",D60,"_hard")</f>
         <v>sp_tier1_v2_hard</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E62" s="14">
         <v>10000</v>
       </c>
-      <c r="F59" s="14">
-        <v>0</v>
-      </c>
-      <c r="G59" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="F62" s="14">
+        <v>0</v>
+      </c>
+      <c r="G62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
         <v>4</v>
       </c>
-      <c r="J59">
+      <c r="J62">
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C60,5,1,""),"_",D60,"_default")</f>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C63,5,1,""),"_",D63,"_default")</f>
         <v>sp_tier2_v0_default</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C63" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D63" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="23">
-        <v>0</v>
-      </c>
-      <c r="F60" s="23">
-        <v>0</v>
-      </c>
-      <c r="G60" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="E63" s="23">
+        <v>0</v>
+      </c>
+      <c r="F63" s="23">
+        <v>0</v>
+      </c>
+      <c r="G63" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
         <v>32</v>
       </c>
-      <c r="I60">
+      <c r="I63">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C61,5,1,""),"_",D61,"_easy")</f>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C64,5,1,""),"_",D64,"_easy")</f>
         <v>sp_tier2_v1_easy</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C64" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D64" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E64" s="19">
         <v>2500</v>
       </c>
-      <c r="F61" s="19">
-        <v>0</v>
-      </c>
-      <c r="G61" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="F64" s="19">
+        <v>0</v>
+      </c>
+      <c r="G64" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
         <v>8</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I64" t="s">
         <v>7</v>
       </c>
-      <c r="J61">
+      <c r="J64">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C62,5,1,""),"_",D61,"_medium")</f>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C65,5,1,""),"_",D64,"_medium")</f>
         <v>sp_tier2_v1_medium</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C65" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D65" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E65" s="19">
         <v>15000</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F65" s="19">
         <v>120</v>
       </c>
-      <c r="G62" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="G65" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
         <v>6</v>
       </c>
-      <c r="J62">
+      <c r="J65">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C63,5,1,""),"_",D61,"_hard")</f>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C66,5,1,""),"_",D64,"_hard")</f>
         <v>sp_tier2_v1_hard</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D66" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E66" s="19">
         <v>30000</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F66" s="19">
         <v>120</v>
       </c>
-      <c r="G63" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="G66" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
         <v>5</v>
       </c>
-      <c r="J63">
+      <c r="J66">
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C64,5,1,""),"_",D64,"_easy")</f>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C67,5,1,""),"_",D67,"_easy")</f>
         <v>sp_tier2_v2_easy</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D67" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E67" s="14">
         <v>2500</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F67" s="14">
         <v>5</v>
       </c>
-      <c r="G64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="G67" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
         <v>4</v>
       </c>
-      <c r="J64">
+      <c r="J67">
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C65,5,1,""),"_",D64,"_medium")</f>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C68,5,1,""),"_",D67,"_medium")</f>
         <v>sp_tier2_v2_medium</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D68" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E68" s="14">
         <v>15000</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F68" s="14">
         <v>120</v>
       </c>
-      <c r="G65" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G68" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
         <v>19</v>
       </c>
-      <c r="I65">
+      <c r="I68">
         <v>3000</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J68" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C66,5,1,""),"_",D64,"_hard")</f>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C69,5,1,""),"_",D67,"_hard")</f>
         <v>sp_tier2_v2_hard</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D69" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E69" s="14">
         <v>30000</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F69" s="14">
         <v>120</v>
       </c>
-      <c r="G66" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="21" t="s">
+      <c r="G69" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I69" s="21">
         <v>15000</v>
       </c>
-      <c r="J66" s="21" t="s">
+      <c r="J69" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C67,5,1,""),"_",D67,"_easy")</f>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C70,5,1,""),"_",D70,"_easy")</f>
         <v>sp_tier2_f1_easy</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D70" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E70" s="19">
         <v>2500</v>
       </c>
-      <c r="F67" s="19">
-        <v>0</v>
-      </c>
-      <c r="G67" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="F70" s="19">
+        <v>0</v>
+      </c>
+      <c r="G70" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
         <v>14</v>
       </c>
-      <c r="I67">
+      <c r="I70">
         <v>30000</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C68,5,1,""),"_",D67,"_medium")</f>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C71,5,1,""),"_",D70,"_medium")</f>
         <v>sp_tier2_f1_medium</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C71" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D71" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E71" s="19">
         <v>15000</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F71" s="19">
         <v>120</v>
       </c>
-      <c r="G68" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G71" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
         <v>12</v>
       </c>
-      <c r="I68">
+      <c r="I71">
         <v>40000</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C69,5,1,""),"_",D67,"_hard")</f>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C72,5,1,""),"_",D70,"_hard")</f>
         <v>sp_tier2_f1_hard</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D72" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E72" s="19">
         <v>30000</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F72" s="19">
         <v>120</v>
       </c>
-      <c r="G69" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G72" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
         <v>10</v>
       </c>
-      <c r="I69">
+      <c r="I72">
         <v>5000</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C70,5,1,""),"_",D70,"_easy")</f>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C73,5,1,""),"_",D73,"_easy")</f>
         <v>sp_tier2_f2_easy</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D73" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E73" s="14">
         <v>2500</v>
       </c>
-      <c r="F70" s="14">
-        <v>0</v>
-      </c>
-      <c r="G70" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+      <c r="G73" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
         <v>22</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I73" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J70" s="21">
+      <c r="J73" s="21">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C71,5,1,""),"_",D70,"_medium")</f>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C74,5,1,""),"_",D73,"_medium")</f>
         <v>sp_tier2_f2_medium</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D74" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E74" s="14">
         <v>15000</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F74" s="14">
         <v>120</v>
       </c>
-      <c r="G71" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="G74" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
         <v>6</v>
       </c>
-      <c r="J71">
+      <c r="J74">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C72,5,1,""),"_",D70,"_hard")</f>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C75,5,1,""),"_",D73,"_hard")</f>
         <v>sp_tier2_f2_hard</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D75" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E75" s="14">
         <v>30000</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F75" s="14">
         <v>120</v>
       </c>
-      <c r="G72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="G75" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
         <v>5</v>
       </c>
-      <c r="J72">
+      <c r="J75">
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C73,5,1,""),"_",D73,"_easy")</f>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C76,5,1,""),"_",D76,"_easy")</f>
         <v>sp_tier2_c1_easy</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C76" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D76" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E76" s="19">
         <v>7500</v>
       </c>
-      <c r="F73" s="19">
-        <v>0</v>
-      </c>
-      <c r="G73" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="F76" s="19">
+        <v>0</v>
+      </c>
+      <c r="G76" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
         <v>4</v>
       </c>
-      <c r="J73">
+      <c r="J76">
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C74,5,1,""),"_",D73,"_medium")</f>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C77,5,1,""),"_",D76,"_medium")</f>
         <v>sp_tier2_c1_medium</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E77" s="19">
         <v>15000</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F77" s="19">
         <v>150</v>
       </c>
-      <c r="G74" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G77" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
         <v>32</v>
       </c>
-      <c r="I74">
+      <c r="I77">
         <v>2500</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C75,5,1,""),"_",D73,"_hard")</f>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C78,5,1,""),"_",D76,"_hard")</f>
         <v>sp_tier2_c1_hard</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C78" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D78" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E78" s="19">
         <v>30000</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F78" s="19">
         <v>150</v>
       </c>
-      <c r="G75" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G78" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="21" t="s">
+      <c r="I78" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J75" s="21">
+      <c r="J78" s="21">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C76,5,1,""),"_",D76,"_easy")</f>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C79,5,1,""),"_",D79,"_easy")</f>
         <v>sp_tier2_c2_easy</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D79" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E79" s="14">
         <v>7500</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F79" s="14">
         <v>5</v>
       </c>
-      <c r="G76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="G79" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
         <v>6</v>
       </c>
-      <c r="J76">
+      <c r="J79">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C77,5,1,""),"_",D76,"_medium")</f>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C80,5,1,""),"_",D79,"_medium")</f>
         <v>sp_tier2_c2_medium</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D80" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E80" s="14">
         <v>15000</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F80" s="14">
         <v>150</v>
       </c>
-      <c r="G77" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="G80" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
         <v>5</v>
       </c>
-      <c r="J77">
+      <c r="J80">
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="28" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C78,5,1,""),"_",D76,"_hard")</f>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="28" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C81,5,1,""),"_",D79,"_hard")</f>
         <v>sp_tier2_c2_hard</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C81" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D81" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E81" s="28">
         <v>30000</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F81" s="14">
         <v>150</v>
       </c>
-      <c r="G78" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="G81" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
         <v>4</v>
       </c>
-      <c r="J78">
+      <c r="J81">
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="25" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C79,5,1,""),"_",D79,"_easy")</f>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="25" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C82,5,1,""),"_",D82,"_easy")</f>
         <v>sp_tier2_m1_easy</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C82" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D82" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E82" s="25">
         <v>7500</v>
       </c>
-      <c r="F79" s="25">
-        <v>0</v>
-      </c>
-      <c r="G79" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="F82" s="25">
+        <v>0</v>
+      </c>
+      <c r="G82" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
         <v>32</v>
       </c>
-      <c r="I79">
+      <c r="I82">
         <v>7500</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C80,5,1,""),"_",D79,"_medium")</f>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C83,5,1,""),"_",D82,"_medium")</f>
         <v>sp_tier2_m1_medium</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C83" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D83" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E83" s="19">
         <v>15000</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F83" s="19">
         <v>150</v>
       </c>
-      <c r="G80" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G83" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
         <v>8</v>
       </c>
-      <c r="I80" s="21" t="s">
+      <c r="I83" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J80" s="21">
+      <c r="J83" s="21">
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C81,5,1,""),"_",D79,"_hard")</f>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C84,5,1,""),"_",D82,"_hard")</f>
         <v>sp_tier2_m1_hard</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D84" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E84" s="19">
         <v>30000</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F84" s="19">
         <v>150</v>
       </c>
-      <c r="G81" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="G84" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
         <v>6</v>
       </c>
-      <c r="J81">
+      <c r="J84">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C82,5,1,""),"_",D82,"_easy")</f>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C85,5,1,""),"_",D85,"_easy")</f>
         <v>sp_tier2_m2_easy</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D85" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E85" s="14">
         <v>7500</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F85" s="14">
         <v>5</v>
       </c>
-      <c r="G82" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="G85" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
         <v>5</v>
       </c>
-      <c r="J82">
+      <c r="J85">
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C83,5,1,""),"_",D82,"_medium")</f>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C86,5,1,""),"_",D85,"_medium")</f>
         <v>sp_tier2_m2_medium</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D86" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E86" s="14">
         <v>15000</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F86" s="14">
         <v>150</v>
       </c>
-      <c r="G83" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="G86" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
         <v>4</v>
       </c>
-      <c r="J83">
+      <c r="J86">
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C84,5,1,""),"_",D82,"_hard")</f>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C87,5,1,""),"_",D85,"_hard")</f>
         <v>sp_tier2_m2_hard</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E87" s="14">
         <v>30000</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F87" s="14">
         <v>150</v>
       </c>
-      <c r="G84" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="G87" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
         <v>32</v>
       </c>
-      <c r="I84">
+      <c r="I87">
         <v>10000</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C85,5,1,""),"_",D85,"_default")</f>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C88,5,1,""),"_",D88,"_default")</f>
         <v>sp_tier3_v0_default</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C88" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D88" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="23">
-        <v>0</v>
-      </c>
-      <c r="F85" s="23">
-        <v>0</v>
-      </c>
-      <c r="G85" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C86,5,1,""),"_",D86,"_easy")</f>
+      <c r="E88" s="23">
+        <v>0</v>
+      </c>
+      <c r="F88" s="23">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C89,5,1,""),"_",D89,"_easy")</f>
         <v>sp_tier3_v1_easy</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C89" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D89" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E89" s="19">
         <v>2500</v>
       </c>
-      <c r="F86" s="19">
-        <v>0</v>
-      </c>
-      <c r="G86" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="F89" s="19">
+        <v>0</v>
+      </c>
+      <c r="G89" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
         <v>19</v>
       </c>
-      <c r="I86">
+      <c r="I89">
         <v>3000</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J89" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C87,5,1,""),"_",D86,"_medium")</f>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C90,5,1,""),"_",D89,"_medium")</f>
         <v>sp_tier3_v1_medium</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C90" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D90" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E90" s="19">
         <v>30000</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F90" s="19">
         <v>150</v>
       </c>
-      <c r="G87" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="G90" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
         <v>16</v>
       </c>
-      <c r="I87">
+      <c r="I90">
         <v>15000</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J90" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C88,5,1,""),"_",D86,"_hard")</f>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C91,5,1,""),"_",D89,"_hard")</f>
         <v>sp_tier3_v1_hard</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D91" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E91" s="19">
         <v>50000</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F91" s="19">
         <v>150</v>
       </c>
-      <c r="G88" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" s="21" t="s">
+      <c r="G91" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I91" s="21">
         <v>30000</v>
       </c>
-      <c r="J88" s="21" t="s">
+      <c r="J91" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C89,5,1,""),"_",D89,"_easy")</f>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C92,5,1,""),"_",D92,"_easy")</f>
         <v>sp_tier3_v2_easy</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C92" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D92" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E92" s="14">
         <v>2500</v>
       </c>
-      <c r="F89" s="14">
-        <v>0</v>
-      </c>
-      <c r="G89" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="F92" s="14">
+        <v>0</v>
+      </c>
+      <c r="G92" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
         <v>12</v>
       </c>
-      <c r="I89">
+      <c r="I92">
         <v>40000</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J92" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C90,5,1,""),"_",D89,"_medium")</f>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C93,5,1,""),"_",D92,"_medium")</f>
         <v>sp_tier3_v2_medium</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C93" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D93" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E93" s="14">
         <v>30000</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F93" s="14">
         <v>150</v>
       </c>
-      <c r="G90" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="G93" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
         <v>10</v>
       </c>
-      <c r="I90">
+      <c r="I93">
         <v>5000</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J93" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C91,5,1,""),"_",D89,"_hard")</f>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C94,5,1,""),"_",D92,"_hard")</f>
         <v>sp_tier3_v2_hard</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C94" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D94" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E94" s="14">
         <v>50000</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F94" s="14">
         <v>150</v>
       </c>
-      <c r="G91" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="G94" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
         <v>22</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I94" t="s">
         <v>7</v>
       </c>
-      <c r="J91">
+      <c r="J94">
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C92,5,1,""),"_",D92,"_easy")</f>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C95,5,1,""),"_",D95,"_easy")</f>
         <v>sp_tier3_f1_easy</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C95" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D95" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E95" s="19">
         <v>2500</v>
       </c>
-      <c r="F92" s="19">
-        <v>0</v>
-      </c>
-      <c r="G92" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="21" t="s">
+      <c r="F95" s="19">
+        <v>0</v>
+      </c>
+      <c r="G95" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J92" s="21">
+      <c r="J95" s="21">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C93,5,1,""),"_",D92,"_medium")</f>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C96,5,1,""),"_",D95,"_medium")</f>
         <v>sp_tier3_f1_medium</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C96" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D96" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E96" s="19">
         <v>30000</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F96" s="19">
         <v>150</v>
       </c>
-      <c r="G93" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="G96" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
         <v>5</v>
       </c>
-      <c r="J93">
+      <c r="J96">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C94,5,1,""),"_",D92,"_hard")</f>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C97,5,1,""),"_",D95,"_hard")</f>
         <v>sp_tier3_f1_hard</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C97" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D97" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E97" s="19">
         <v>50000</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F97" s="19">
         <v>150</v>
       </c>
-      <c r="G94" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="G97" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
         <v>4</v>
       </c>
-      <c r="J94">
+      <c r="J97">
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C95,5,1,""),"_",D95,"_easy")</f>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C98,5,1,""),"_",D98,"_easy")</f>
         <v>sp_tier3_f2_easy</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C98" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D98" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E98" s="14">
         <v>2500</v>
       </c>
-      <c r="F95" s="14">
-        <v>0</v>
-      </c>
-      <c r="G95" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="F98" s="14">
+        <v>0</v>
+      </c>
+      <c r="G98" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
         <v>32</v>
       </c>
-      <c r="I95">
+      <c r="I98">
         <v>2500</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C96,5,1,""),"_",D95,"_medium")</f>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C99,5,1,""),"_",D98,"_medium")</f>
         <v>sp_tier3_f2_medium</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C99" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D99" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E99" s="14">
         <v>30000</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F99" s="14">
         <v>150</v>
       </c>
-      <c r="G96" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="G99" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
         <v>17</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I99" t="s">
         <v>7</v>
       </c>
-      <c r="J96">
+      <c r="J99">
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C97,5,1,""),"_",D95,"_hard")</f>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C100,5,1,""),"_",D98,"_hard")</f>
         <v>sp_tier3_f2_hard</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C100" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D100" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E100" s="14">
         <v>50000</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F100" s="14">
         <v>150</v>
       </c>
-      <c r="G97" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="21" t="s">
+      <c r="G100" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J97" s="21">
+      <c r="J100" s="21">
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C98,5,1,""),"_",D98,"_easy")</f>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C101,5,1,""),"_",D101,"_easy")</f>
         <v>sp_tier3_c1_easy</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C101" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D101" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E101" s="19">
         <v>7500</v>
       </c>
-      <c r="F98" s="19">
-        <v>0</v>
-      </c>
-      <c r="G98" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="F101" s="19">
+        <v>0</v>
+      </c>
+      <c r="G101" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
         <v>5</v>
       </c>
-      <c r="J98">
+      <c r="J101">
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C99,5,1,""),"_",D98,"_medium")</f>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C102,5,1,""),"_",D101,"_medium")</f>
         <v>sp_tier3_c1_medium</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C102" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D102" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E99" s="19">
+      <c r="E102" s="19">
         <v>30000</v>
       </c>
-      <c r="F99" s="19">
+      <c r="F102" s="19">
         <v>200</v>
       </c>
-      <c r="G99" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="G102" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
         <v>4</v>
       </c>
-      <c r="J99">
+      <c r="J102">
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C100,5,1,""),"_",D98,"_hard")</f>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C103,5,1,""),"_",D101,"_hard")</f>
         <v>sp_tier3_c1_hard</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C103" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D103" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E103" s="19">
         <v>50000</v>
       </c>
-      <c r="F100" s="19">
+      <c r="F103" s="19">
         <v>200</v>
       </c>
-      <c r="G100" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="G103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
         <v>32</v>
       </c>
-      <c r="I100">
+      <c r="I103">
         <v>7500</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C101,5,1,""),"_",D101,"_easy")</f>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C104,5,1,""),"_",D104,"_easy")</f>
         <v>sp_tier3_c2_easy</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C104" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D104" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E104" s="14">
         <v>7500</v>
       </c>
-      <c r="F101" s="14">
-        <v>0</v>
-      </c>
-      <c r="G101" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="F104" s="14">
+        <v>0</v>
+      </c>
+      <c r="G104" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
         <v>8</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I104" t="s">
         <v>7</v>
       </c>
-      <c r="J101">
+      <c r="J104">
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C102,5,1,""),"_",D101,"_medium")</f>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C105,5,1,""),"_",D104,"_medium")</f>
         <v>sp_tier3_c2_medium</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C105" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D105" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E105" s="14">
         <v>30000</v>
       </c>
-      <c r="F102" s="14">
+      <c r="F105" s="14">
         <v>200</v>
       </c>
-      <c r="G102" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" s="21" t="s">
+      <c r="G105" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J102" s="21">
+      <c r="J105" s="21">
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C103,5,1,""),"_",D101,"_hard")</f>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C106,5,1,""),"_",D104,"_hard")</f>
         <v>sp_tier3_c2_hard</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C106" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D106" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E106" s="13">
         <v>50000</v>
       </c>
-      <c r="F103" s="13">
+      <c r="F106" s="13">
         <v>200</v>
       </c>
-      <c r="G103" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="G106" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
         <v>5</v>
       </c>
-      <c r="J103">
+      <c r="J106">
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C104,5,1,""),"_",D104,"_easy")</f>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C107,5,1,""),"_",D107,"_easy")</f>
         <v>sp_tier3_m1_easy</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C107" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D107" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E107" s="19">
         <v>7500</v>
       </c>
-      <c r="F104" s="19">
-        <v>0</v>
-      </c>
-      <c r="G104" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="F107" s="19">
+        <v>0</v>
+      </c>
+      <c r="G107" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
         <v>4</v>
       </c>
-      <c r="J104">
+      <c r="J107">
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C105,5,1,""),"_",D104,"_medium")</f>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C108,5,1,""),"_",D107,"_medium")</f>
         <v>sp_tier3_m1_medium</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C108" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D108" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E105" s="19">
+      <c r="E108" s="19">
         <v>30000</v>
       </c>
-      <c r="F105" s="19">
+      <c r="F108" s="19">
         <v>200</v>
       </c>
-      <c r="G105" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="G108" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
         <v>32</v>
       </c>
-      <c r="I105">
+      <c r="I108">
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C106,5,1,""),"_",D104,"_hard")</f>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C109,5,1,""),"_",D107,"_hard")</f>
         <v>sp_tier3_m1_hard</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C109" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D109" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E109" s="19">
         <v>50000</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F109" s="19">
         <v>200</v>
       </c>
-      <c r="G106" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C107,5,1,""),"_",D107,"_easy")</f>
+      <c r="G109" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C110,5,1,""),"_",D110,"_easy")</f>
         <v>sp_tier3_m2_easy</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C110" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D110" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E107" s="14">
+      <c r="E110" s="14">
         <v>7500</v>
       </c>
-      <c r="F107" s="14">
-        <v>0</v>
-      </c>
-      <c r="G107" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B108" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C108,5,1,""),"_",D107,"_medium")</f>
+      <c r="F110" s="14">
+        <v>0</v>
+      </c>
+      <c r="G110" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C111,5,1,""),"_",D110,"_medium")</f>
         <v>sp_tier3_m2_medium</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C111" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D111" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E111" s="14">
         <v>30000</v>
       </c>
-      <c r="F108" s="14">
+      <c r="F111" s="14">
         <v>200</v>
       </c>
-      <c r="G108" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C109,5,1,""),"_",D107,"_hard")</f>
+      <c r="G111" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C112,5,1,""),"_",D110,"_hard")</f>
         <v>sp_tier3_m2_hard</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C112" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D112" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E112" s="13">
         <v>50000</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F112" s="13">
         <v>200</v>
       </c>
-      <c r="G109" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C110,5,1,""),"_",D110,"_easy")</f>
+      <c r="G112" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C113,5,1,""),"_",D113,"_easy")</f>
         <v>sp_tier3_w1_easy</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C113" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D113" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="19">
+      <c r="E113" s="19">
         <v>10000</v>
       </c>
-      <c r="F110" s="19">
-        <v>0</v>
-      </c>
-      <c r="G110" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C111,5,1,""),"_",D110,"_medium")</f>
+      <c r="F113" s="19">
+        <v>0</v>
+      </c>
+      <c r="G113" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C114,5,1,""),"_",D113,"_medium")</f>
         <v>sp_tier3_w1_medium</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C114" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D111" s="19" t="s">
+      <c r="D114" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="19">
+      <c r="E114" s="19">
         <v>30000</v>
       </c>
-      <c r="F111" s="19">
+      <c r="F114" s="19">
         <v>200</v>
       </c>
-      <c r="G111" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C112,5,1,""),"_",D110,"_hard")</f>
+      <c r="G114" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C115,5,1,""),"_",D113,"_hard")</f>
         <v>sp_tier3_w1_hard</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C115" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="19" t="s">
+      <c r="D115" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E112" s="19">
+      <c r="E115" s="19">
         <v>8000</v>
       </c>
-      <c r="F112" s="19">
+      <c r="F115" s="19">
         <v>20</v>
       </c>
-      <c r="G112" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C113,5,1,""),"_",D113,"_easy")</f>
+      <c r="G115" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C116,5,1,""),"_",D116,"_easy")</f>
         <v>sp_tier3_w2_easy</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C116" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D116" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E116" s="14">
         <v>3500</v>
       </c>
-      <c r="F113" s="14">
-        <v>0</v>
-      </c>
-      <c r="G113" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C114,5,1,""),"_",D113,"_medium")</f>
+      <c r="F116" s="14">
+        <v>0</v>
+      </c>
+      <c r="G116" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C117,5,1,""),"_",D116,"_medium")</f>
         <v>sp_tier3_w2_medium</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C117" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D117" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E117" s="14">
         <v>30000</v>
       </c>
-      <c r="F114" s="14">
+      <c r="F117" s="14">
         <v>200</v>
       </c>
-      <c r="G114" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C115,5,1,""),"_",D113,"_hard")</f>
+      <c r="G117" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C118,5,1,""),"_",D116,"_hard")</f>
         <v>sp_tier3_w2_hard</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C118" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="D118" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E118" s="13">
         <v>50000</v>
       </c>
-      <c r="F115" s="13">
+      <c r="F118" s="13">
         <v>200</v>
       </c>
-      <c r="G115" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C116,5,1,""),"_",D116,"_easy")</f>
+      <c r="G118" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C119,5,1,""),"_",D119,"_easy")</f>
         <v>sp_tier3_d1_easy</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C119" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D116" s="19" t="s">
+      <c r="D119" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E119" s="19">
         <v>10000</v>
       </c>
-      <c r="F116" s="19">
-        <v>0</v>
-      </c>
-      <c r="G116" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C117,5,1,""),"_",D116,"_medium")</f>
+      <c r="F119" s="19">
+        <v>0</v>
+      </c>
+      <c r="G119" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C120,5,1,""),"_",D119,"_medium")</f>
         <v>sp_tier3_d1_medium</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C120" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D120" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E120" s="19">
         <v>30000</v>
       </c>
-      <c r="F117" s="19">
+      <c r="F120" s="19">
         <v>200</v>
       </c>
-      <c r="G117" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C118,5,1,""),"_",D116,"_hard")</f>
+      <c r="G120" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C121,5,1,""),"_",D119,"_hard")</f>
         <v>sp_tier3_d1_hard</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C121" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D118" s="19" t="s">
+      <c r="D121" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E121" s="19">
         <v>8000</v>
       </c>
-      <c r="F118" s="19">
+      <c r="F121" s="19">
         <v>200</v>
       </c>
-      <c r="G118" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C119,5,1,""),"_",D119,"_easy")</f>
+      <c r="G121" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C122,5,1,""),"_",D122,"_easy")</f>
         <v>sp_tier3_d2_easy</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C122" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D122" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E119" s="14">
+      <c r="E122" s="14">
         <v>10000</v>
       </c>
-      <c r="F119" s="14">
-        <v>0</v>
-      </c>
-      <c r="G119" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C120,5,1,""),"_",D119,"_medium")</f>
+      <c r="F122" s="14">
+        <v>0</v>
+      </c>
+      <c r="G122" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C123,5,1,""),"_",D122,"_medium")</f>
         <v>sp_tier3_d2_medium</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C123" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D123" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E123" s="14">
         <v>30000</v>
       </c>
-      <c r="F120" s="14">
+      <c r="F123" s="14">
         <v>200</v>
       </c>
-      <c r="G120" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C121,5,1,""),"_",D119,"_hard")</f>
+      <c r="G123" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C124,5,1,""),"_",D122,"_hard")</f>
         <v>sp_tier3_d2_hard</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C124" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="D124" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E124" s="13">
         <v>50000</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F124" s="13">
         <v>200</v>
       </c>
-      <c r="G121" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C122,5,1,""),"_",D122,"_default")</f>
+      <c r="G124" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C125,5,1,""),"_",D125,"_default")</f>
         <v>sp_tier4_v0_default</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C125" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D125" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E122" s="23">
-        <v>0</v>
-      </c>
-      <c r="F122" s="23">
-        <v>0</v>
-      </c>
-      <c r="G122" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C123,5,1,""),"_",D123,"_easy")</f>
+      <c r="E125" s="23">
+        <v>0</v>
+      </c>
+      <c r="F125" s="23">
+        <v>0</v>
+      </c>
+      <c r="G125" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C126,5,1,""),"_",D126,"_easy")</f>
         <v>sp_tier4_v1_easy</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C126" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D126" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E123" s="19">
+      <c r="E126" s="19">
         <v>2500</v>
       </c>
-      <c r="F123" s="19">
-        <v>0</v>
-      </c>
-      <c r="G123" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="F126" s="19">
+        <v>0</v>
+      </c>
+      <c r="G126" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
         <v>19</v>
       </c>
-      <c r="I123">
+      <c r="I126">
         <v>3000</v>
       </c>
-      <c r="J123" s="10" t="s">
+      <c r="J126" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C124,5,1,""),"_",D123,"_medium")</f>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C127,5,1,""),"_",D126,"_medium")</f>
         <v>sp_tier4_v1_medium</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C127" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D127" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E127" s="19">
         <v>40000</v>
       </c>
-      <c r="F124" s="19">
+      <c r="F127" s="19">
         <v>180</v>
       </c>
-      <c r="G124" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="G127" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
         <v>16</v>
       </c>
-      <c r="I124">
+      <c r="I127">
         <v>15000</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J127" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C125,5,1,""),"_",D123,"_hard")</f>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C128,5,1,""),"_",D126,"_hard")</f>
         <v>sp_tier4_v1_hard</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C128" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D128" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E128" s="19">
         <v>60000</v>
       </c>
-      <c r="F125" s="19">
+      <c r="F128" s="19">
         <v>180</v>
       </c>
-      <c r="G125" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="G128" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
         <v>14</v>
       </c>
-      <c r="I125">
+      <c r="I128">
         <v>30000</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J128" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B126" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C126,5,1,""),"_",D126,"_easy")</f>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C129,5,1,""),"_",D129,"_easy")</f>
         <v>sp_tier4_v2_easy</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C129" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D129" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E129" s="14">
         <v>2500</v>
       </c>
-      <c r="F126" s="14">
-        <v>0</v>
-      </c>
-      <c r="G126" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" s="21" t="s">
+      <c r="F129" s="14">
+        <v>0</v>
+      </c>
+      <c r="G129" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I126" s="21">
+      <c r="I129" s="21">
         <v>40000</v>
       </c>
-      <c r="J126" s="21" t="s">
+      <c r="J129" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C127,5,1,""),"_",D126,"_medium")</f>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C130,5,1,""),"_",D129,"_medium")</f>
         <v>sp_tier4_v2_medium</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C130" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D130" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E127" s="14">
+      <c r="E130" s="14">
         <v>40000</v>
       </c>
-      <c r="F127" s="14">
+      <c r="F130" s="14">
         <v>180</v>
       </c>
-      <c r="G127" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="G130" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
         <v>10</v>
       </c>
-      <c r="I127">
+      <c r="I130">
         <v>5000</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J130" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C128,5,1,""),"_",D126,"_hard")</f>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C131,5,1,""),"_",D129,"_hard")</f>
         <v>sp_tier4_v2_hard</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C131" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D131" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E128" s="14">
+      <c r="E131" s="14">
         <v>60000</v>
       </c>
-      <c r="F128" s="14">
+      <c r="F131" s="14">
         <v>180</v>
       </c>
-      <c r="G128" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="G131" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
         <v>22</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I131" t="s">
         <v>7</v>
       </c>
-      <c r="J128">
+      <c r="J131">
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C129,5,1,""),"_",D129,"_easy")</f>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C132,5,1,""),"_",D132,"_easy")</f>
         <v>sp_tier4_f1_easy</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C132" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="D132" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E129" s="19">
+      <c r="E132" s="19">
         <v>2500</v>
       </c>
-      <c r="F129" s="19">
-        <v>0</v>
-      </c>
-      <c r="G129" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="F132" s="19">
+        <v>0</v>
+      </c>
+      <c r="G132" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
         <v>6</v>
       </c>
-      <c r="J129">
+      <c r="J132">
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C130,5,1,""),"_",D129,"_medium")</f>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C133,5,1,""),"_",D132,"_medium")</f>
         <v>sp_tier4_f1_medium</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C133" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D130" s="19" t="s">
+      <c r="D133" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E133" s="19">
         <v>40000</v>
       </c>
-      <c r="F130" s="19">
+      <c r="F133" s="19">
         <v>180</v>
       </c>
-      <c r="G130" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I130" s="21" t="s">
+      <c r="G133" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J130" s="21">
+      <c r="J133" s="21">
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B131" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C131,5,1,""),"_",D129,"_hard")</f>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C134,5,1,""),"_",D132,"_hard")</f>
         <v>sp_tier4_f1_hard</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C134" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D131" s="19" t="s">
+      <c r="D134" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E131" s="19">
+      <c r="E134" s="19">
         <v>60000</v>
       </c>
-      <c r="F131" s="19">
+      <c r="F134" s="19">
         <v>180</v>
       </c>
-      <c r="G131" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" t="s">
+      <c r="G134" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
         <v>4</v>
       </c>
-      <c r="J131">
+      <c r="J134">
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C132,5,1,""),"_",D132,"_easy")</f>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C135,5,1,""),"_",D135,"_easy")</f>
         <v>sp_tier4_f2_easy</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C135" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D135" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E132" s="14">
+      <c r="E135" s="14">
         <v>2500</v>
       </c>
-      <c r="F132" s="14">
-        <v>0</v>
-      </c>
-      <c r="G132" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="F135" s="14">
+        <v>0</v>
+      </c>
+      <c r="G135" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
         <v>32</v>
       </c>
-      <c r="I132">
+      <c r="I135">
         <v>2500</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C133,5,1,""),"_",D132,"_medium")</f>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C136,5,1,""),"_",D135,"_medium")</f>
         <v>sp_tier4_f2_medium</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C136" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D136" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E133" s="14">
+      <c r="E136" s="14">
         <v>40000</v>
       </c>
-      <c r="F133" s="14">
+      <c r="F136" s="14">
         <v>230</v>
       </c>
-      <c r="G133" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="G136" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
         <v>17</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I136" t="s">
         <v>7</v>
       </c>
-      <c r="J133">
+      <c r="J136">
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C134,5,1,""),"_",D132,"_hard")</f>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C137,5,1,""),"_",D135,"_hard")</f>
         <v>sp_tier4_f2_hard</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C137" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D137" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E134" s="14">
+      <c r="E137" s="14">
         <v>60000</v>
       </c>
-      <c r="F134" s="14">
+      <c r="F137" s="14">
         <v>230</v>
       </c>
-      <c r="G134" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" t="s">
+      <c r="G137" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
         <v>6</v>
       </c>
-      <c r="J134">
+      <c r="J137">
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B135" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C135,5,1,""),"_",D135,"_easy")</f>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C138,5,1,""),"_",D138,"_easy")</f>
         <v>sp_tier4_c1_easy</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C138" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D138" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E135" s="19">
+      <c r="E138" s="19">
         <v>7500</v>
       </c>
-      <c r="F135" s="19">
-        <v>0</v>
-      </c>
-      <c r="G135" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" s="21" t="s">
+      <c r="F138" s="19">
+        <v>0</v>
+      </c>
+      <c r="G138" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J135" s="21">
+      <c r="J138" s="21">
         <v>230</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B136" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C136,5,1,""),"_",D135,"_medium")</f>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C139,5,1,""),"_",D138,"_medium")</f>
         <v>sp_tier4_c1_medium</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C139" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D136" s="19" t="s">
+      <c r="D139" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E139" s="19">
         <v>40000</v>
       </c>
-      <c r="F136" s="19">
+      <c r="F139" s="19">
         <v>230</v>
       </c>
-      <c r="G136" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I136" t="s">
+      <c r="G139" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
         <v>4</v>
       </c>
-      <c r="J136">
+      <c r="J139">
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C137,5,1,""),"_",D135,"_hard")</f>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C140,5,1,""),"_",D138,"_hard")</f>
         <v>sp_tier4_c1_hard</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C140" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D137" s="19" t="s">
+      <c r="D140" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E137" s="19">
+      <c r="E140" s="19">
         <v>60000</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F140" s="19">
         <v>230</v>
       </c>
-      <c r="G137" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="G140" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
         <v>32</v>
       </c>
-      <c r="I137">
+      <c r="I140">
         <v>7500</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B138" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C138,5,1,""),"_",D138,"_easy")</f>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C141,5,1,""),"_",D141,"_easy")</f>
         <v>sp_tier4_c2_easy</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C141" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="D141" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E138" s="14">
+      <c r="E141" s="14">
         <v>7500</v>
       </c>
-      <c r="F138" s="14">
-        <v>0</v>
-      </c>
-      <c r="G138" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="F141" s="14">
+        <v>0</v>
+      </c>
+      <c r="G141" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
         <v>8</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I141" t="s">
         <v>7</v>
       </c>
-      <c r="J138">
+      <c r="J141">
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B139" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C139,5,1,""),"_",D138,"_medium")</f>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C142,5,1,""),"_",D141,"_medium")</f>
         <v>sp_tier4_c2_medium</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C142" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D142" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E139" s="14">
+      <c r="E142" s="14">
         <v>40000</v>
       </c>
-      <c r="F139" s="14">
+      <c r="F142" s="14">
         <v>230</v>
       </c>
-      <c r="G139" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I139" t="s">
+      <c r="G142" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
         <v>6</v>
       </c>
-      <c r="J139">
+      <c r="J142">
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C140,5,1,""),"_",D138,"_hard")</f>
+    <row r="143" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C143,5,1,""),"_",D141,"_hard")</f>
         <v>sp_tier4_c2_hard</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C143" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D143" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E140" s="13">
+      <c r="E143" s="13">
         <v>60000</v>
       </c>
-      <c r="F140" s="13">
+      <c r="F143" s="13">
         <v>230</v>
       </c>
-      <c r="G140" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I140" s="21" t="s">
+      <c r="G143" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J140" s="21">
+      <c r="J143" s="21">
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B141" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C141,5,1,""),"_",D141,"_easy")</f>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C144,5,1,""),"_",D144,"_easy")</f>
         <v>sp_tier4_m1_easy</v>
       </c>
-      <c r="C141" s="34" t="s">
+      <c r="C144" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D141" s="19" t="s">
+      <c r="D144" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E141" s="19">
+      <c r="E144" s="19">
         <v>7500</v>
       </c>
-      <c r="F141" s="19">
-        <v>0</v>
-      </c>
-      <c r="G141" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I141" t="s">
+      <c r="F144" s="19">
+        <v>0</v>
+      </c>
+      <c r="G144" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
         <v>4</v>
       </c>
-      <c r="J141">
+      <c r="J144">
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C142,5,1,""),"_",D141,"_medium")</f>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C145,5,1,""),"_",D144,"_medium")</f>
         <v>sp_tier4_m1_medium</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C145" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D142" s="19" t="s">
+      <c r="D145" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E145" s="19">
         <v>40000</v>
       </c>
-      <c r="F142" s="19">
+      <c r="F145" s="19">
         <v>230</v>
       </c>
-      <c r="G142" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="G145" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
         <v>32</v>
       </c>
-      <c r="I142">
+      <c r="I145">
         <v>10000</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C143,5,1,""),"_",D141,"_hard")</f>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C146,5,1,""),"_",D144,"_hard")</f>
         <v>sp_tier4_m1_hard</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C146" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D143" s="19" t="s">
+      <c r="D146" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E143" s="19">
+      <c r="E146" s="19">
         <v>60000</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F146" s="19">
         <v>230</v>
       </c>
-      <c r="G143" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C144,5,1,""),"_",D144,"_easy")</f>
+      <c r="G146" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C147,5,1,""),"_",D147,"_easy")</f>
         <v>sp_tier4_m2_easy</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C147" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="D147" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E144" s="14">
+      <c r="E147" s="14">
         <v>7500</v>
       </c>
-      <c r="F144" s="14">
-        <v>0</v>
-      </c>
-      <c r="G144" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C145,5,1,""),"_",D144,"_medium")</f>
+      <c r="F147" s="14">
+        <v>0</v>
+      </c>
+      <c r="G147" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C148,5,1,""),"_",D147,"_medium")</f>
         <v>sp_tier4_m2_medium</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C148" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D148" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E145" s="14">
+      <c r="E148" s="14">
         <v>40000</v>
       </c>
-      <c r="F145" s="14">
+      <c r="F148" s="14">
         <v>230</v>
       </c>
-      <c r="G145" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C146,5,1,""),"_",D144,"_hard")</f>
+      <c r="G148" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C149,5,1,""),"_",D147,"_hard")</f>
         <v>sp_tier4_m2_hard</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C149" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="D149" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E146" s="13">
+      <c r="E149" s="13">
         <v>60000</v>
       </c>
-      <c r="F146" s="13">
+      <c r="F149" s="13">
         <v>230</v>
       </c>
-      <c r="G146" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C147,5,1,""),"_",D147,"_easy")</f>
+      <c r="G149" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C150,5,1,""),"_",D150,"_easy")</f>
         <v>sp_tier4_w1_easy</v>
       </c>
-      <c r="C147" s="34" t="s">
+      <c r="C150" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="D150" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E147" s="19">
+      <c r="E150" s="19">
         <v>10000</v>
       </c>
-      <c r="F147" s="19">
-        <v>0</v>
-      </c>
-      <c r="G147" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B148" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C148,5,1,""),"_",D147,"_medium")</f>
+      <c r="F150" s="19">
+        <v>0</v>
+      </c>
+      <c r="G150" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C151,5,1,""),"_",D150,"_medium")</f>
         <v>sp_tier4_w1_medium</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C151" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D151" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E151" s="19">
         <v>40000</v>
       </c>
-      <c r="F148" s="19">
+      <c r="F151" s="19">
         <v>230</v>
       </c>
-      <c r="G148" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C149,5,1,""),"_",D147,"_hard")</f>
+      <c r="G151" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C152,5,1,""),"_",D150,"_hard")</f>
         <v>sp_tier4_w1_hard</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C152" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D152" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E149" s="19">
+      <c r="E152" s="19">
         <v>60000</v>
       </c>
-      <c r="F149" s="19">
+      <c r="F152" s="19">
         <v>230</v>
       </c>
-      <c r="G149" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C150,5,1,""),"_",D150,"_easy")</f>
+      <c r="G152" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C153,5,1,""),"_",D153,"_easy")</f>
         <v>sp_tier4_w2_easy</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C153" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D153" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E150" s="14">
+      <c r="E153" s="14">
         <v>10000</v>
       </c>
-      <c r="F150" s="14">
-        <v>0</v>
-      </c>
-      <c r="G150" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C151,5,1,""),"_",D150,"_medium")</f>
+      <c r="F153" s="14">
+        <v>0</v>
+      </c>
+      <c r="G153" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C154,5,1,""),"_",D153,"_medium")</f>
         <v>sp_tier4_w2_medium</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C154" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D154" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E151" s="14">
+      <c r="E154" s="14">
         <v>40000</v>
       </c>
-      <c r="F151" s="14">
+      <c r="F154" s="14">
         <v>230</v>
       </c>
-      <c r="G151" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C152,5,1,""),"_",D150,"_hard")</f>
+      <c r="G154" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C155,5,1,""),"_",D153,"_hard")</f>
         <v>sp_tier4_w2_hard</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C155" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="D155" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E155" s="13">
         <v>60000</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F155" s="13">
         <v>230</v>
       </c>
-      <c r="G152" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B153" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C153,5,1,""),"_",D153,"_easy")</f>
+      <c r="G155" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C156,5,1,""),"_",D156,"_easy")</f>
         <v>sp_tier4_d1_easy</v>
       </c>
-      <c r="C153" s="34" t="s">
+      <c r="C156" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D153" s="19" t="s">
+      <c r="D156" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E153" s="19">
+      <c r="E156" s="19">
         <v>10000</v>
       </c>
-      <c r="F153" s="19">
-        <v>0</v>
-      </c>
-      <c r="G153" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C154,5,1,""),"_",D153,"_medium")</f>
+      <c r="F156" s="19">
+        <v>0</v>
+      </c>
+      <c r="G156" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C157,5,1,""),"_",D156,"_medium")</f>
         <v>sp_tier4_d1_medium</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C157" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D154" s="19" t="s">
+      <c r="D157" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E157" s="19">
         <v>40000</v>
       </c>
-      <c r="F154" s="19">
+      <c r="F157" s="19">
         <v>230</v>
       </c>
-      <c r="G154" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C155,5,1,""),"_",D153,"_hard")</f>
+      <c r="G157" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C158,5,1,""),"_",D156,"_hard")</f>
         <v>sp_tier4_d1_hard</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C158" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D155" s="19" t="s">
+      <c r="D158" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E155" s="19">
+      <c r="E158" s="19">
         <v>60000</v>
       </c>
-      <c r="F155" s="19">
+      <c r="F158" s="19">
         <v>230</v>
       </c>
-      <c r="G155" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C156,5,1,""),"_",D156,"_easy")</f>
+      <c r="G158" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C159,5,1,""),"_",D159,"_easy")</f>
         <v>sp_tier4_d2_easy</v>
       </c>
-      <c r="C156" s="14" t="s">
+      <c r="C159" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D156" s="14" t="s">
+      <c r="D159" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E156" s="14">
+      <c r="E159" s="14">
         <v>10000</v>
       </c>
-      <c r="F156" s="14">
-        <v>0</v>
-      </c>
-      <c r="G156" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C157,5,1,""),"_",D156,"_medium")</f>
+      <c r="F159" s="14">
+        <v>0</v>
+      </c>
+      <c r="G159" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C160,5,1,""),"_",D159,"_medium")</f>
         <v>sp_tier4_d2_medium</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="C160" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D160" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E157" s="14">
+      <c r="E160" s="14">
         <v>40000</v>
       </c>
-      <c r="F157" s="14">
+      <c r="F160" s="14">
         <v>230</v>
       </c>
-      <c r="G157" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C158,5,1,""),"_",D156,"_hard")</f>
+      <c r="G160" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C161,5,1,""),"_",D159,"_hard")</f>
         <v>sp_tier4_d2_hard</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C161" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D161" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E161" s="13">
         <v>60000</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F161" s="13">
         <v>230</v>
       </c>
-      <c r="G158" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B159" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C159,5,1,""),"_",D159,"_default")</f>
+      <c r="G161" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C162,5,1,""),"_",D162,"_default")</f>
         <v>sp_tier5_v0_default</v>
       </c>
-      <c r="C159" s="23" t="s">
+      <c r="C162" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D159" s="23" t="s">
+      <c r="D162" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E159" s="23">
-        <v>0</v>
-      </c>
-      <c r="F159" s="23">
-        <v>0</v>
-      </c>
-      <c r="G159" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C160,5,1,""),"_",D160,"_easy")</f>
+      <c r="E162" s="23">
+        <v>0</v>
+      </c>
+      <c r="F162" s="23">
+        <v>0</v>
+      </c>
+      <c r="G162" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C163,5,1,""),"_",D163,"_easy")</f>
         <v>sp_tier5_v1_easy</v>
       </c>
-      <c r="C160" s="19" t="s">
+      <c r="C163" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D160" s="19" t="s">
+      <c r="D163" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E160" s="19">
+      <c r="E163" s="19">
         <v>2500</v>
       </c>
-      <c r="F160" s="19">
-        <v>0</v>
-      </c>
-      <c r="G160" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="F163" s="19">
+        <v>0</v>
+      </c>
+      <c r="G163" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
         <v>19</v>
       </c>
-      <c r="I160">
+      <c r="I163">
         <v>3000</v>
       </c>
-      <c r="J160" s="10" t="s">
+      <c r="J163" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C161,5,1,""),"_",D160,"_medium")</f>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C164,5,1,""),"_",D163,"_medium")</f>
         <v>sp_tier5_v1_medium</v>
       </c>
-      <c r="C161" s="19" t="s">
+      <c r="C164" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D161" s="19" t="s">
+      <c r="D164" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E161" s="19">
+      <c r="E164" s="19">
         <v>50000</v>
       </c>
-      <c r="F161" s="19">
+      <c r="F164" s="19">
         <v>230</v>
       </c>
-      <c r="G161" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="G164" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
         <v>16</v>
       </c>
-      <c r="I161">
+      <c r="I164">
         <v>15000</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J164" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C162,5,1,""),"_",D160,"_hard")</f>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C165,5,1,""),"_",D163,"_hard")</f>
         <v>sp_tier5_v1_hard</v>
       </c>
-      <c r="C162" s="19" t="s">
+      <c r="C165" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="D165" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E162" s="19">
+      <c r="E165" s="19">
         <v>70000</v>
       </c>
-      <c r="F162" s="19">
+      <c r="F165" s="19">
         <v>230</v>
       </c>
-      <c r="G162" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="G165" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
         <v>14</v>
       </c>
-      <c r="I162">
+      <c r="I165">
         <v>30000</v>
       </c>
-      <c r="J162" t="s">
+      <c r="J165" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B163" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C163,5,1,""),"_",D163,"_easy")</f>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C166,5,1,""),"_",D166,"_easy")</f>
         <v>sp_tier5_v2_easy</v>
       </c>
-      <c r="C163" s="14" t="s">
+      <c r="C166" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D166" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E163" s="14">
+      <c r="E166" s="14">
         <v>2500</v>
       </c>
-      <c r="F163" s="14">
+      <c r="F166" s="14">
         <v>5</v>
       </c>
-      <c r="G163" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="G166" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
         <v>12</v>
       </c>
-      <c r="I163">
+      <c r="I166">
         <v>40000</v>
       </c>
-      <c r="J163" t="s">
+      <c r="J166" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C164,5,1,""),"_",D163,"_medium")</f>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C167,5,1,""),"_",D166,"_medium")</f>
         <v>sp_tier5_v2_medium</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C167" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="D167" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E164" s="14">
+      <c r="E167" s="14">
         <v>50000</v>
       </c>
-      <c r="F164" s="14">
+      <c r="F167" s="14">
         <v>230</v>
       </c>
-      <c r="G164" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" s="21" t="s">
+      <c r="G167" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I164" s="21">
+      <c r="I167" s="21">
         <v>50000</v>
       </c>
-      <c r="J164" s="21" t="s">
+      <c r="J167" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C165,5,1,""),"_",D163,"_hard")</f>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C168,5,1,""),"_",D166,"_hard")</f>
         <v>sp_tier5_v2_hard</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C168" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D168" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E165" s="14">
+      <c r="E168" s="14">
         <v>70000</v>
       </c>
-      <c r="F165" s="14">
+      <c r="F168" s="14">
         <v>230</v>
       </c>
-      <c r="G165" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H165" t="s">
+      <c r="G168" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" t="s">
         <v>22</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I168" t="s">
         <v>7</v>
       </c>
-      <c r="J165">
+      <c r="J168">
         <v>120</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B166" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C166,5,1,""),"_",D166,"_easy")</f>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C169,5,1,""),"_",D169,"_easy")</f>
         <v>sp_tier5_f1_easy</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C169" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D166" s="19" t="s">
+      <c r="D169" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E166" s="19">
+      <c r="E169" s="19">
         <v>2500</v>
       </c>
-      <c r="F166" s="19">
-        <v>0</v>
-      </c>
-      <c r="G166" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I166" t="s">
+      <c r="F169" s="19">
+        <v>0</v>
+      </c>
+      <c r="G169" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
         <v>6</v>
       </c>
-      <c r="J166">
+      <c r="J169">
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C167,5,1,""),"_",D166,"_medium")</f>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C170,5,1,""),"_",D169,"_medium")</f>
         <v>sp_tier5_f1_medium</v>
       </c>
-      <c r="C167" s="19" t="s">
+      <c r="C170" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="19" t="s">
+      <c r="D170" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E167" s="19">
+      <c r="E170" s="19">
         <v>50000</v>
       </c>
-      <c r="F167" s="19">
+      <c r="F170" s="19">
         <v>230</v>
       </c>
-      <c r="G167" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I167" t="s">
+      <c r="G170" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
         <v>5</v>
       </c>
-      <c r="J167">
+      <c r="J170">
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B168" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C168,5,1,""),"_",D166,"_hard")</f>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C171,5,1,""),"_",D169,"_hard")</f>
         <v>sp_tier5_f1_hard</v>
       </c>
-      <c r="C168" s="19" t="s">
+      <c r="C171" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D168" s="19" t="s">
+      <c r="D171" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E168" s="19">
+      <c r="E171" s="19">
         <v>70000</v>
       </c>
-      <c r="F168" s="19">
+      <c r="F171" s="19">
         <v>230</v>
       </c>
-      <c r="G168" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I168" s="21" t="s">
+      <c r="G171" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J168" s="21">
+      <c r="J171" s="21">
         <v>230</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B169" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C169,5,1,""),"_",D169,"_easy")</f>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C172,5,1,""),"_",D172,"_easy")</f>
         <v>sp_tier5_f2_easy</v>
       </c>
-      <c r="C169" s="14" t="s">
+      <c r="C172" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D172" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E169" s="14">
+      <c r="E172" s="14">
         <v>2500</v>
       </c>
-      <c r="F169" s="14">
-        <v>0</v>
-      </c>
-      <c r="G169" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H169" t="s">
+      <c r="F172" s="14">
+        <v>0</v>
+      </c>
+      <c r="G172" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H172" t="s">
         <v>32</v>
       </c>
-      <c r="I169">
+      <c r="I172">
         <v>2500</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B170" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C170,5,1,""),"_",D169,"_medium")</f>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C173,5,1,""),"_",D172,"_medium")</f>
         <v>sp_tier5_f2_medium</v>
       </c>
-      <c r="C170" s="14" t="s">
+      <c r="C173" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D173" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E170" s="14">
+      <c r="E173" s="14">
         <v>50000</v>
       </c>
-      <c r="F170" s="14">
+      <c r="F173" s="14">
         <v>230</v>
       </c>
-      <c r="G170" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="s">
+      <c r="G173" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="s">
         <v>17</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I173" t="s">
         <v>7</v>
       </c>
-      <c r="J170">
+      <c r="J173">
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C171,5,1,""),"_",D169,"_hard")</f>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C174,5,1,""),"_",D172,"_hard")</f>
         <v>sp_tier5_f2_hard</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C174" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D174" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E171" s="14">
+      <c r="E174" s="14">
         <v>70000</v>
       </c>
-      <c r="F171" s="14">
+      <c r="F174" s="14">
         <v>230</v>
       </c>
-      <c r="G171" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" t="s">
+      <c r="G174" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" t="s">
         <v>6</v>
       </c>
-      <c r="J171">
+      <c r="J174">
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B172" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C172,5,1,""),"_",D172,"_easy")</f>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C175,5,1,""),"_",D175,"_easy")</f>
         <v>sp_tier5_c1_easy</v>
       </c>
-      <c r="C172" s="19" t="s">
+      <c r="C175" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D172" s="19" t="s">
+      <c r="D175" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E172" s="19">
+      <c r="E175" s="19">
         <v>7500</v>
       </c>
-      <c r="F172" s="19">
-        <v>0</v>
-      </c>
-      <c r="G172" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" t="s">
+      <c r="F175" s="19">
+        <v>0</v>
+      </c>
+      <c r="G175" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" t="s">
         <v>5</v>
       </c>
-      <c r="J172">
+      <c r="J175">
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B173" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C173,5,1,""),"_",D172,"_medium")</f>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C176,5,1,""),"_",D175,"_medium")</f>
         <v>sp_tier5_c1_medium</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="C176" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D173" s="19" t="s">
+      <c r="D176" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E173" s="19">
+      <c r="E176" s="19">
         <v>50000</v>
       </c>
-      <c r="F173" s="19">
+      <c r="F176" s="19">
         <v>270</v>
       </c>
-      <c r="G173" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I173" s="21" t="s">
+      <c r="G176" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I176" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J173" s="21">
+      <c r="J176" s="21">
         <v>270</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C174,5,1,""),"_",D172,"_hard")</f>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C177,5,1,""),"_",D175,"_hard")</f>
         <v>sp_tier5_c1_hard</v>
       </c>
-      <c r="C174" s="19" t="s">
+      <c r="C177" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D174" s="19" t="s">
+      <c r="D177" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E174" s="19">
+      <c r="E177" s="19">
         <v>70000</v>
       </c>
-      <c r="F174" s="19">
+      <c r="F177" s="19">
         <v>270</v>
       </c>
-      <c r="G174" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="G177" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" t="s">
         <v>32</v>
       </c>
-      <c r="I174">
+      <c r="I177">
         <v>7500</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C175,5,1,""),"_",D175,"_easy")</f>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C178,5,1,""),"_",D178,"_easy")</f>
         <v>sp_tier5_c2_easy</v>
       </c>
-      <c r="C175" s="14" t="s">
+      <c r="C178" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D178" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E178" s="14">
         <v>7500</v>
       </c>
-      <c r="F175" s="14">
-        <v>0</v>
-      </c>
-      <c r="G175" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H175" t="s">
+      <c r="F178" s="14">
+        <v>0</v>
+      </c>
+      <c r="G178" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H178" t="s">
         <v>8</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I178" t="s">
         <v>7</v>
       </c>
-      <c r="J175">
+      <c r="J178">
         <v>150</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C176,5,1,""),"_",D175,"_medium")</f>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C179,5,1,""),"_",D178,"_medium")</f>
         <v>sp_tier5_c2_medium</v>
       </c>
-      <c r="C176" s="14" t="s">
+      <c r="C179" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D179" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E179" s="14">
         <v>50000</v>
       </c>
-      <c r="F176" s="14">
+      <c r="F179" s="14">
         <v>270</v>
       </c>
-      <c r="G176" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I176" t="s">
+      <c r="G179" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I179" t="s">
         <v>6</v>
       </c>
-      <c r="J176">
+      <c r="J179">
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C177,5,1,""),"_",D175,"_hard")</f>
+    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C180,5,1,""),"_",D178,"_hard")</f>
         <v>sp_tier5_c2_hard</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C180" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D177" s="13" t="s">
+      <c r="D180" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E177" s="13">
+      <c r="E180" s="13">
         <v>70000</v>
       </c>
-      <c r="F177" s="13">
+      <c r="F180" s="13">
         <v>270</v>
       </c>
-      <c r="G177" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I177" t="s">
+      <c r="G180" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" t="s">
         <v>5</v>
       </c>
-      <c r="J177">
+      <c r="J180">
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C178,5,1,""),"_",D178,"_easy")</f>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C181,5,1,""),"_",D181,"_easy")</f>
         <v>sp_tier5_m1_easy</v>
       </c>
-      <c r="C178" s="34" t="s">
+      <c r="C181" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D178" s="19" t="s">
+      <c r="D181" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E178" s="19">
+      <c r="E181" s="19">
         <v>7500</v>
       </c>
-      <c r="F178" s="19">
-        <v>0</v>
-      </c>
-      <c r="G178" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I178" s="21" t="s">
+      <c r="F181" s="19">
+        <v>0</v>
+      </c>
+      <c r="G181" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J178" s="21">
+      <c r="J181" s="21">
         <v>270</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C179,5,1,""),"_",D178,"_medium")</f>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C182,5,1,""),"_",D181,"_medium")</f>
         <v>sp_tier5_m1_medium</v>
       </c>
-      <c r="C179" s="19" t="s">
+      <c r="C182" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D179" s="19" t="s">
+      <c r="D182" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E179" s="19">
+      <c r="E182" s="19">
         <v>50000</v>
       </c>
-      <c r="F179" s="19">
+      <c r="F182" s="19">
         <v>270</v>
       </c>
-      <c r="G179" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="s">
+      <c r="G182" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="s">
         <v>32</v>
       </c>
-      <c r="I179">
+      <c r="I182">
         <v>10000</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C180,5,1,""),"_",D178,"_hard")</f>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C183,5,1,""),"_",D181,"_hard")</f>
         <v>sp_tier5_m1_hard</v>
       </c>
-      <c r="C180" s="19" t="s">
+      <c r="C183" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="19" t="s">
+      <c r="D183" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E180" s="19">
+      <c r="E183" s="19">
         <v>70000</v>
       </c>
-      <c r="F180" s="19">
+      <c r="F183" s="19">
         <v>270</v>
       </c>
-      <c r="G180" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B181" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C181,5,1,""),"_",D181,"_easy")</f>
+      <c r="G183" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C184,5,1,""),"_",D184,"_easy")</f>
         <v>sp_tier5_m2_easy</v>
       </c>
-      <c r="C181" s="14" t="s">
+      <c r="C184" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D184" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E181" s="14">
+      <c r="E184" s="14">
         <v>7500</v>
       </c>
-      <c r="F181" s="14">
-        <v>0</v>
-      </c>
-      <c r="G181" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C182,5,1,""),"_",D181,"_medium")</f>
+      <c r="F184" s="14">
+        <v>0</v>
+      </c>
+      <c r="G184" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C185,5,1,""),"_",D184,"_medium")</f>
         <v>sp_tier5_m2_medium</v>
       </c>
-      <c r="C182" s="14" t="s">
+      <c r="C185" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D185" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E182" s="14">
+      <c r="E185" s="14">
         <v>50000</v>
       </c>
-      <c r="F182" s="14">
+      <c r="F185" s="14">
         <v>270</v>
       </c>
-      <c r="G182" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B183" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C183,5,1,""),"_",D181,"_hard")</f>
+      <c r="G185" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C186,5,1,""),"_",D184,"_hard")</f>
         <v>sp_tier5_m2_hard</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C186" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D186" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E183" s="13">
+      <c r="E186" s="13">
         <v>70000</v>
       </c>
-      <c r="F183" s="13">
+      <c r="F186" s="13">
         <v>270</v>
       </c>
-      <c r="G183" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B184" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C184,5,1,""),"_",D184,"_easy")</f>
+      <c r="G186" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C187,5,1,""),"_",D187,"_easy")</f>
         <v>sp_tier5_w1_easy</v>
       </c>
-      <c r="C184" s="34" t="s">
+      <c r="C187" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D184" s="19" t="s">
+      <c r="D187" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E184" s="19">
+      <c r="E187" s="19">
         <v>10000</v>
       </c>
-      <c r="F184" s="19">
-        <v>0</v>
-      </c>
-      <c r="G184" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B185" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C185,5,1,""),"_",D184,"_medium")</f>
+      <c r="F187" s="19">
+        <v>0</v>
+      </c>
+      <c r="G187" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C188,5,1,""),"_",D187,"_medium")</f>
         <v>sp_tier5_w1_medium</v>
       </c>
-      <c r="C185" s="19" t="s">
+      <c r="C188" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D185" s="19" t="s">
+      <c r="D188" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E185" s="19">
+      <c r="E188" s="19">
         <v>50000</v>
       </c>
-      <c r="F185" s="19">
+      <c r="F188" s="19">
         <v>270</v>
       </c>
-      <c r="G185" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C186,5,1,""),"_",D184,"_hard")</f>
+      <c r="G188" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C189,5,1,""),"_",D187,"_hard")</f>
         <v>sp_tier5_w1_hard</v>
       </c>
-      <c r="C186" s="19" t="s">
+      <c r="C189" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D186" s="19" t="s">
+      <c r="D189" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E186" s="19">
+      <c r="E189" s="19">
         <v>70000</v>
       </c>
-      <c r="F186" s="19">
+      <c r="F189" s="19">
         <v>270</v>
       </c>
-      <c r="G186" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B187" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C187,5,1,""),"_",D187,"_easy")</f>
+      <c r="G189" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C190,5,1,""),"_",D190,"_easy")</f>
         <v>sp_tier5_w2_easy</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="C190" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="D190" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E187" s="14">
+      <c r="E190" s="14">
         <v>10000</v>
       </c>
-      <c r="F187" s="14">
-        <v>0</v>
-      </c>
-      <c r="G187" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B188" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C188,5,1,""),"_",D187,"_medium")</f>
+      <c r="F190" s="14">
+        <v>0</v>
+      </c>
+      <c r="G190" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C191,5,1,""),"_",D190,"_medium")</f>
         <v>sp_tier5_w2_medium</v>
       </c>
-      <c r="C188" s="14" t="s">
+      <c r="C191" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="D191" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E188" s="14">
+      <c r="E191" s="14">
         <v>50000</v>
       </c>
-      <c r="F188" s="14">
+      <c r="F191" s="14">
         <v>270</v>
       </c>
-      <c r="G188" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C189,5,1,""),"_",D187,"_hard")</f>
+      <c r="G191" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C192,5,1,""),"_",D190,"_hard")</f>
         <v>sp_tier5_w2_hard</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C192" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="D192" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E189" s="13">
+      <c r="E192" s="13">
         <v>70000</v>
       </c>
-      <c r="F189" s="13">
+      <c r="F192" s="13">
         <v>270</v>
       </c>
-      <c r="G189" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C190,5,1,""),"_",D190,"_easy")</f>
+      <c r="G192" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C193,5,1,""),"_",D193,"_easy")</f>
         <v>sp_tier5_d1_easy</v>
       </c>
-      <c r="C190" s="34" t="s">
+      <c r="C193" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D190" s="19" t="s">
+      <c r="D193" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E190" s="19">
+      <c r="E193" s="19">
         <v>10000</v>
       </c>
-      <c r="F190" s="19">
-        <v>0</v>
-      </c>
-      <c r="G190" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B191" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C191,5,1,""),"_",D190,"_medium")</f>
+      <c r="F193" s="19">
+        <v>0</v>
+      </c>
+      <c r="G193" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C194,5,1,""),"_",D193,"_medium")</f>
         <v>sp_tier5_d1_medium</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C194" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="19" t="s">
+      <c r="D194" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E191" s="19">
+      <c r="E194" s="19">
         <v>50000</v>
       </c>
-      <c r="F191" s="19">
+      <c r="F194" s="19">
         <v>270</v>
       </c>
-      <c r="G191" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B192" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C192,5,1,""),"_",D190,"_hard")</f>
+      <c r="G194" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C195,5,1,""),"_",D193,"_hard")</f>
         <v>sp_tier5_d1_hard</v>
       </c>
-      <c r="C192" s="19" t="s">
+      <c r="C195" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D192" s="19" t="s">
+      <c r="D195" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E192" s="19">
+      <c r="E195" s="19">
         <v>70000</v>
       </c>
-      <c r="F192" s="19">
+      <c r="F195" s="19">
         <v>270</v>
       </c>
-      <c r="G192" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B193" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C193,5,1,""),"_",D193,"_easy")</f>
+      <c r="G195" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C196,5,1,""),"_",D196,"_easy")</f>
         <v>sp_tier5_d2_easy</v>
       </c>
-      <c r="C193" s="14" t="s">
+      <c r="C196" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D193" s="14" t="s">
+      <c r="D196" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E193" s="14">
+      <c r="E196" s="14">
         <v>10000</v>
       </c>
-      <c r="F193" s="14">
-        <v>0</v>
-      </c>
-      <c r="G193" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C194,5,1,""),"_",D193,"_medium")</f>
+      <c r="F196" s="14">
+        <v>0</v>
+      </c>
+      <c r="G196" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C197,5,1,""),"_",D196,"_medium")</f>
         <v>sp_tier5_d2_medium</v>
       </c>
-      <c r="C194" s="14" t="s">
+      <c r="C197" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D194" s="14" t="s">
+      <c r="D197" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E194" s="14">
+      <c r="E197" s="14">
         <v>50000</v>
       </c>
-      <c r="F194" s="14">
+      <c r="F197" s="14">
         <v>270</v>
       </c>
-      <c r="G194" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B195" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C195,5,1,""),"_",D193,"_hard")</f>
+      <c r="G197" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C198,5,1,""),"_",D196,"_hard")</f>
         <v>sp_tier5_d2_hard</v>
       </c>
-      <c r="C195" s="14" t="s">
+      <c r="C198" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D195" s="13" t="s">
+      <c r="D198" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E195" s="13">
+      <c r="E198" s="13">
         <v>70000</v>
       </c>
-      <c r="F195" s="13">
+      <c r="F198" s="13">
         <v>270</v>
       </c>
-      <c r="G195" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C196,5,1,""),"_",D196,"_default")</f>
+      <c r="G198" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C199,5,1,""),"_",D199,"_default")</f>
         <v>sp_tier6_v0_default</v>
       </c>
-      <c r="C196" s="23" t="s">
+      <c r="C199" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D196" s="23" t="s">
+      <c r="D199" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E196" s="23">
-        <v>0</v>
-      </c>
-      <c r="F196" s="23">
-        <v>0</v>
-      </c>
-      <c r="G196" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B197" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C197,5,1,""),"_",D197,"_easy")</f>
+      <c r="E199" s="23">
+        <v>0</v>
+      </c>
+      <c r="F199" s="23">
+        <v>0</v>
+      </c>
+      <c r="G199" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C200,5,1,""),"_",D200,"_easy")</f>
         <v>sp_tier6_v1_easy</v>
       </c>
-      <c r="C197" s="19" t="s">
+      <c r="C200" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D197" s="19" t="s">
+      <c r="D200" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E197" s="19">
+      <c r="E200" s="19">
         <v>2500</v>
       </c>
-      <c r="F197" s="19">
-        <v>0</v>
-      </c>
-      <c r="G197" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B198" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C198,5,1,""),"_",D197,"_medium")</f>
+      <c r="F200" s="19">
+        <v>0</v>
+      </c>
+      <c r="G200" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C201,5,1,""),"_",D200,"_medium")</f>
         <v>sp_tier6_v1_medium</v>
       </c>
-      <c r="C198" s="19" t="s">
+      <c r="C201" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D198" s="19" t="s">
+      <c r="D201" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E198" s="19">
+      <c r="E201" s="19">
         <v>50000</v>
       </c>
-      <c r="F198" s="19">
+      <c r="F201" s="19">
         <v>230</v>
       </c>
-      <c r="G198" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B199" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C199,5,1,""),"_",D197,"_hard")</f>
+      <c r="G201" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C202,5,1,""),"_",D200,"_hard")</f>
         <v>sp_tier6_v1_hard</v>
       </c>
-      <c r="C199" s="19" t="s">
+      <c r="C202" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D199" s="19" t="s">
+      <c r="D202" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E199" s="19">
+      <c r="E202" s="19">
         <v>70000</v>
       </c>
-      <c r="F199" s="19">
+      <c r="F202" s="19">
         <v>230</v>
       </c>
-      <c r="G199" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C200,5,1,""),"_",D200,"_easy")</f>
+      <c r="G202" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C203,5,1,""),"_",D203,"_easy")</f>
         <v>sp_tier6_v2_easy</v>
       </c>
-      <c r="C200" s="14" t="s">
+      <c r="C203" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D203" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E200" s="14">
+      <c r="E203" s="14">
         <v>2500</v>
       </c>
-      <c r="F200" s="14">
+      <c r="F203" s="14">
         <v>5</v>
       </c>
-      <c r="G200" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B201" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C201,5,1,""),"_",D200,"_medium")</f>
+      <c r="G203" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C204,5,1,""),"_",D203,"_medium")</f>
         <v>sp_tier6_v2_medium</v>
       </c>
-      <c r="C201" s="14" t="s">
+      <c r="C204" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D201" s="14" t="s">
+      <c r="D204" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E201" s="14">
+      <c r="E204" s="14">
         <v>50000</v>
       </c>
-      <c r="F201" s="14">
+      <c r="F204" s="14">
         <v>230</v>
       </c>
-      <c r="G201" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B202" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C202,5,1,""),"_",D200,"_hard")</f>
+      <c r="G204" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C205,5,1,""),"_",D203,"_hard")</f>
         <v>sp_tier6_v2_hard</v>
       </c>
-      <c r="C202" s="14" t="s">
+      <c r="C205" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D202" s="14" t="s">
+      <c r="D205" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E202" s="14">
+      <c r="E205" s="14">
         <v>70000</v>
       </c>
-      <c r="F202" s="14">
+      <c r="F205" s="14">
         <v>230</v>
       </c>
-      <c r="G202" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B203" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C203,5,1,""),"_",D203,"_easy")</f>
+      <c r="G205" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C206,5,1,""),"_",D206,"_easy")</f>
         <v>sp_tier6_f1_easy</v>
       </c>
-      <c r="C203" s="19" t="s">
+      <c r="C206" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="19" t="s">
+      <c r="D206" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E203" s="19">
+      <c r="E206" s="19">
         <v>2500</v>
       </c>
-      <c r="F203" s="19">
-        <v>0</v>
-      </c>
-      <c r="G203" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B204" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C204,5,1,""),"_",D203,"_medium")</f>
+      <c r="F206" s="19">
+        <v>0</v>
+      </c>
+      <c r="G206" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C207,5,1,""),"_",D206,"_medium")</f>
         <v>sp_tier6_f1_medium</v>
       </c>
-      <c r="C204" s="19" t="s">
+      <c r="C207" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D204" s="19" t="s">
+      <c r="D207" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E204" s="19">
+      <c r="E207" s="19">
         <v>50000</v>
       </c>
-      <c r="F204" s="19">
+      <c r="F207" s="19">
         <v>230</v>
       </c>
-      <c r="G204" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B205" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C205,5,1,""),"_",D203,"_hard")</f>
+      <c r="G207" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C208,5,1,""),"_",D206,"_hard")</f>
         <v>sp_tier6_f1_hard</v>
       </c>
-      <c r="C205" s="19" t="s">
+      <c r="C208" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D205" s="19" t="s">
+      <c r="D208" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E205" s="19">
+      <c r="E208" s="19">
         <v>70000</v>
       </c>
-      <c r="F205" s="19">
+      <c r="F208" s="19">
         <v>230</v>
       </c>
-      <c r="G205" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B206" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C206,5,1,""),"_",D206,"_easy")</f>
+      <c r="G208" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C209,5,1,""),"_",D209,"_easy")</f>
         <v>sp_tier6_f2_easy</v>
       </c>
-      <c r="C206" s="14" t="s">
+      <c r="C209" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D206" s="14" t="s">
+      <c r="D209" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E206" s="14">
+      <c r="E209" s="14">
         <v>2500</v>
       </c>
-      <c r="F206" s="14">
-        <v>0</v>
-      </c>
-      <c r="G206" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B207" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C207,5,1,""),"_",D206,"_medium")</f>
+      <c r="F209" s="14">
+        <v>0</v>
+      </c>
+      <c r="G209" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C210,5,1,""),"_",D209,"_medium")</f>
         <v>sp_tier6_f2_medium</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="C210" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D207" s="14" t="s">
+      <c r="D210" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E207" s="14">
+      <c r="E210" s="14">
         <v>50000</v>
       </c>
-      <c r="F207" s="14">
+      <c r="F210" s="14">
         <v>230</v>
       </c>
-      <c r="G207" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B208" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C208,5,1,""),"_",D206,"_hard")</f>
+      <c r="G210" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C211,5,1,""),"_",D209,"_hard")</f>
         <v>sp_tier6_f2_hard</v>
       </c>
-      <c r="C208" s="14" t="s">
+      <c r="C211" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="D211" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E208" s="14">
+      <c r="E211" s="14">
         <v>70000</v>
       </c>
-      <c r="F208" s="14">
+      <c r="F211" s="14">
         <v>230</v>
       </c>
-      <c r="G208" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B209" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C209,5,1,""),"_",D209,"_easy")</f>
+      <c r="G211" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C212,5,1,""),"_",D212,"_easy")</f>
         <v>sp_tier6_c1_easy</v>
       </c>
-      <c r="C209" s="19" t="s">
+      <c r="C212" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D209" s="19" t="s">
+      <c r="D212" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E209" s="19">
+      <c r="E212" s="19">
         <v>7500</v>
       </c>
-      <c r="F209" s="19">
-        <v>0</v>
-      </c>
-      <c r="G209" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B210" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C210,5,1,""),"_",D209,"_medium")</f>
+      <c r="F212" s="19">
+        <v>0</v>
+      </c>
+      <c r="G212" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C213,5,1,""),"_",D212,"_medium")</f>
         <v>sp_tier6_c1_medium</v>
       </c>
-      <c r="C210" s="19" t="s">
+      <c r="C213" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D210" s="19" t="s">
+      <c r="D213" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E210" s="19">
+      <c r="E213" s="19">
         <v>50000</v>
       </c>
-      <c r="F210" s="19">
+      <c r="F213" s="19">
         <v>270</v>
       </c>
-      <c r="G210" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C211,5,1,""),"_",D209,"_hard")</f>
+      <c r="G213" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C214,5,1,""),"_",D212,"_hard")</f>
         <v>sp_tier6_c1_hard</v>
       </c>
-      <c r="C211" s="19" t="s">
+      <c r="C214" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D211" s="19" t="s">
+      <c r="D214" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E211" s="19">
+      <c r="E214" s="19">
         <v>70000</v>
       </c>
-      <c r="F211" s="19">
+      <c r="F214" s="19">
         <v>270</v>
       </c>
-      <c r="G211" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C212,5,1,""),"_",D212,"_easy")</f>
+      <c r="G214" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C215,5,1,""),"_",D215,"_easy")</f>
         <v>sp_tier6_c2_easy</v>
       </c>
-      <c r="C212" s="14" t="s">
+      <c r="C215" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D215" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E212" s="14">
+      <c r="E215" s="14">
         <v>7500</v>
       </c>
-      <c r="F212" s="14">
-        <v>0</v>
-      </c>
-      <c r="G212" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B213" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C213,5,1,""),"_",D212,"_medium")</f>
+      <c r="F215" s="14">
+        <v>0</v>
+      </c>
+      <c r="G215" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C216,5,1,""),"_",D215,"_medium")</f>
         <v>sp_tier6_c2_medium</v>
       </c>
-      <c r="C213" s="14" t="s">
+      <c r="C216" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="D216" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E213" s="14">
+      <c r="E216" s="14">
         <v>50000</v>
       </c>
-      <c r="F213" s="14">
+      <c r="F216" s="14">
         <v>270</v>
       </c>
-      <c r="G213" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B214" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C214,5,1,""),"_",D212,"_hard")</f>
+      <c r="G216" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C217,5,1,""),"_",D215,"_hard")</f>
         <v>sp_tier6_c2_hard</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C217" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="13" t="s">
+      <c r="D217" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E214" s="13">
+      <c r="E217" s="13">
         <v>70000</v>
       </c>
-      <c r="F214" s="13">
+      <c r="F217" s="13">
         <v>270</v>
       </c>
-      <c r="G214" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B215" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C215,5,1,""),"_",D215,"_easy")</f>
+      <c r="G217" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C218,5,1,""),"_",D218,"_easy")</f>
         <v>sp_tier6_m1_easy</v>
       </c>
-      <c r="C215" s="34" t="s">
+      <c r="C218" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D215" s="19" t="s">
+      <c r="D218" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E215" s="19">
+      <c r="E218" s="19">
         <v>7500</v>
       </c>
-      <c r="F215" s="19">
-        <v>0</v>
-      </c>
-      <c r="G215" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B216" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C216,5,1,""),"_",D215,"_medium")</f>
+      <c r="F218" s="19">
+        <v>0</v>
+      </c>
+      <c r="G218" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C219,5,1,""),"_",D218,"_medium")</f>
         <v>sp_tier6_m1_medium</v>
       </c>
-      <c r="C216" s="19" t="s">
+      <c r="C219" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D216" s="19" t="s">
+      <c r="D219" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E216" s="19">
+      <c r="E219" s="19">
         <v>50000</v>
       </c>
-      <c r="F216" s="19">
+      <c r="F219" s="19">
         <v>270</v>
       </c>
-      <c r="G216" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B217" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C217,5,1,""),"_",D215,"_hard")</f>
+      <c r="G219" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C220,5,1,""),"_",D218,"_hard")</f>
         <v>sp_tier6_m1_hard</v>
       </c>
-      <c r="C217" s="19" t="s">
+      <c r="C220" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D217" s="19" t="s">
+      <c r="D220" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E217" s="19">
+      <c r="E220" s="19">
         <v>70000</v>
       </c>
-      <c r="F217" s="19">
+      <c r="F220" s="19">
         <v>270</v>
       </c>
-      <c r="G217" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B218" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C218,5,1,""),"_",D218,"_easy")</f>
+      <c r="G220" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C221,5,1,""),"_",D221,"_easy")</f>
         <v>sp_tier6_m2_easy</v>
       </c>
-      <c r="C218" s="14" t="s">
+      <c r="C221" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="D221" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E218" s="14">
+      <c r="E221" s="14">
         <v>7500</v>
       </c>
-      <c r="F218" s="14">
-        <v>0</v>
-      </c>
-      <c r="G218" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C219,5,1,""),"_",D218,"_medium")</f>
+      <c r="F221" s="14">
+        <v>0</v>
+      </c>
+      <c r="G221" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C222,5,1,""),"_",D221,"_medium")</f>
         <v>sp_tier6_m2_medium</v>
       </c>
-      <c r="C219" s="14" t="s">
+      <c r="C222" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D222" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E219" s="14">
+      <c r="E222" s="14">
         <v>50000</v>
       </c>
-      <c r="F219" s="14">
+      <c r="F222" s="14">
         <v>270</v>
       </c>
-      <c r="G219" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B220" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C220,5,1,""),"_",D218,"_hard")</f>
+      <c r="G222" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C223,5,1,""),"_",D221,"_hard")</f>
         <v>sp_tier6_m2_hard</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C223" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D220" s="13" t="s">
+      <c r="D223" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E220" s="13">
+      <c r="E223" s="13">
         <v>70000</v>
       </c>
-      <c r="F220" s="13">
+      <c r="F223" s="13">
         <v>270</v>
       </c>
-      <c r="G220" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B221" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C221,5,1,""),"_",D221,"_easy")</f>
+      <c r="G223" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C224,5,1,""),"_",D224,"_easy")</f>
         <v>sp_tier6_w1_easy</v>
       </c>
-      <c r="C221" s="34" t="s">
+      <c r="C224" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D221" s="19" t="s">
+      <c r="D224" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E221" s="19">
+      <c r="E224" s="19">
         <v>10000</v>
       </c>
-      <c r="F221" s="19">
-        <v>0</v>
-      </c>
-      <c r="G221" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C222,5,1,""),"_",D221,"_medium")</f>
+      <c r="F224" s="19">
+        <v>0</v>
+      </c>
+      <c r="G224" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C225,5,1,""),"_",D224,"_medium")</f>
         <v>sp_tier6_w1_medium</v>
       </c>
-      <c r="C222" s="19" t="s">
+      <c r="C225" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D222" s="19" t="s">
+      <c r="D225" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E222" s="19">
+      <c r="E225" s="19">
         <v>50000</v>
       </c>
-      <c r="F222" s="19">
+      <c r="F225" s="19">
         <v>270</v>
       </c>
-      <c r="G222" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B223" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C223,5,1,""),"_",D221,"_hard")</f>
+      <c r="G225" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C226,5,1,""),"_",D224,"_hard")</f>
         <v>sp_tier6_w1_hard</v>
       </c>
-      <c r="C223" s="19" t="s">
+      <c r="C226" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D223" s="19" t="s">
+      <c r="D226" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E223" s="19">
+      <c r="E226" s="19">
         <v>70000</v>
       </c>
-      <c r="F223" s="19">
+      <c r="F226" s="19">
         <v>270</v>
       </c>
-      <c r="G223" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B224" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C224,5,1,""),"_",D224,"_easy")</f>
+      <c r="G226" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C227,5,1,""),"_",D227,"_easy")</f>
         <v>sp_tier6_w2_easy</v>
       </c>
-      <c r="C224" s="14" t="s">
+      <c r="C227" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D224" s="14" t="s">
+      <c r="D227" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E224" s="14">
+      <c r="E227" s="14">
         <v>10000</v>
       </c>
-      <c r="F224" s="14">
-        <v>0</v>
-      </c>
-      <c r="G224" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B225" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C225,5,1,""),"_",D224,"_medium")</f>
+      <c r="F227" s="14">
+        <v>0</v>
+      </c>
+      <c r="G227" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C228,5,1,""),"_",D227,"_medium")</f>
         <v>sp_tier6_w2_medium</v>
       </c>
-      <c r="C225" s="14" t="s">
+      <c r="C228" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D225" s="14" t="s">
+      <c r="D228" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E225" s="14">
+      <c r="E228" s="14">
         <v>50000</v>
       </c>
-      <c r="F225" s="14">
+      <c r="F228" s="14">
         <v>270</v>
       </c>
-      <c r="G225" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B226" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C226,5,1,""),"_",D224,"_hard")</f>
+      <c r="G228" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C229,5,1,""),"_",D227,"_hard")</f>
         <v>sp_tier6_w2_hard</v>
       </c>
-      <c r="C226" s="13" t="s">
+      <c r="C229" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D226" s="13" t="s">
+      <c r="D229" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E226" s="13">
+      <c r="E229" s="13">
         <v>70000</v>
       </c>
-      <c r="F226" s="13">
+      <c r="F229" s="13">
         <v>270</v>
       </c>
-      <c r="G226" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B227" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C227,5,1,""),"_",D227,"_easy")</f>
+      <c r="G229" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C230,5,1,""),"_",D230,"_easy")</f>
         <v>sp_tier6_d1_easy</v>
       </c>
-      <c r="C227" s="34" t="s">
+      <c r="C230" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D227" s="19" t="s">
+      <c r="D230" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E227" s="19">
+      <c r="E230" s="19">
         <v>10000</v>
       </c>
-      <c r="F227" s="19">
-        <v>0</v>
-      </c>
-      <c r="G227" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B228" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C228,5,1,""),"_",D227,"_medium")</f>
+      <c r="F230" s="19">
+        <v>0</v>
+      </c>
+      <c r="G230" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C231,5,1,""),"_",D230,"_medium")</f>
         <v>sp_tier6_d1_medium</v>
       </c>
-      <c r="C228" s="19" t="s">
+      <c r="C231" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D228" s="19" t="s">
+      <c r="D231" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E228" s="19">
+      <c r="E231" s="19">
         <v>50000</v>
       </c>
-      <c r="F228" s="19">
+      <c r="F231" s="19">
         <v>270</v>
       </c>
-      <c r="G228" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B229" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C229,5,1,""),"_",D227,"_hard")</f>
+      <c r="G231" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C232,5,1,""),"_",D230,"_hard")</f>
         <v>sp_tier6_d1_hard</v>
       </c>
-      <c r="C229" s="19" t="s">
+      <c r="C232" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D229" s="19" t="s">
+      <c r="D232" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E229" s="19">
+      <c r="E232" s="19">
         <v>70000</v>
       </c>
-      <c r="F229" s="19">
+      <c r="F232" s="19">
         <v>270</v>
       </c>
-      <c r="G229" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B230" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C230,5,1,""),"_",D230,"_easy")</f>
+      <c r="G232" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C233,5,1,""),"_",D233,"_easy")</f>
         <v>sp_tier6_d2_easy</v>
       </c>
-      <c r="C230" s="14" t="s">
+      <c r="C233" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D230" s="14" t="s">
+      <c r="D233" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E230" s="14">
+      <c r="E233" s="14">
         <v>10000</v>
       </c>
-      <c r="F230" s="14">
-        <v>0</v>
-      </c>
-      <c r="G230" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B231" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C231,5,1,""),"_",D230,"_medium")</f>
+      <c r="F233" s="14">
+        <v>0</v>
+      </c>
+      <c r="G233" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C234,5,1,""),"_",D233,"_medium")</f>
         <v>sp_tier6_d2_medium</v>
       </c>
-      <c r="C231" s="14" t="s">
+      <c r="C234" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D231" s="14" t="s">
+      <c r="D234" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E231" s="14">
+      <c r="E234" s="14">
         <v>50000</v>
       </c>
-      <c r="F231" s="14">
+      <c r="F234" s="14">
         <v>270</v>
       </c>
-      <c r="G231" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B232" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C232,5,1,""),"_",D230,"_hard")</f>
+      <c r="G234" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C235,5,1,""),"_",D233,"_hard")</f>
         <v>sp_tier6_d2_hard</v>
       </c>
-      <c r="C232" s="13" t="s">
+      <c r="C235" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D232" s="13" t="s">
+      <c r="D235" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E232" s="13">
+      <c r="E235" s="13">
         <v>70000</v>
       </c>
-      <c r="F232" s="13">
+      <c r="F235" s="13">
         <v>270</v>
       </c>
-      <c r="G232" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B235" s="2" t="s">
+      <c r="G235" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="C238" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D235" s="11" t="s">
+      <c r="D238" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E238" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>23</v>
       </c>
-      <c r="B236">
+      <c r="B239">
         <v>7500</v>
       </c>
-      <c r="C236">
+      <c r="C239">
         <v>2500</v>
       </c>
-      <c r="D236">
+      <c r="D239">
         <v>10000</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E239" t="s">
         <v>22</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F239" t="s">
         <v>7</v>
       </c>
-      <c r="G236">
+      <c r="G239">
         <v>120</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>21</v>
-      </c>
-      <c r="B237">
-        <v>30000</v>
-      </c>
-      <c r="F237" t="s">
-        <v>6</v>
-      </c>
-      <c r="G237">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>20</v>
-      </c>
-      <c r="B238">
-        <v>50000</v>
-      </c>
-      <c r="F238" t="s">
-        <v>5</v>
-      </c>
-      <c r="G238">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F239" t="s">
-        <v>4</v>
-      </c>
-      <c r="G239">
-        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B240">
-        <v>3000</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E240" t="s">
-        <v>17</v>
+        <v>30000</v>
       </c>
       <c r="F240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G240">
         <v>150</v>
@@ -7214,33 +7253,21 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B241">
-        <v>15000</v>
-      </c>
-      <c r="C241" t="s">
-        <v>15</v>
+        <v>50000</v>
       </c>
       <c r="F241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G241">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>14</v>
-      </c>
-      <c r="B242">
-        <v>30000</v>
-      </c>
-      <c r="C242" t="s">
-        <v>13</v>
-      </c>
       <c r="F242" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G242">
         <v>230</v>
@@ -7248,50 +7275,104 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B243">
-        <v>40000</v>
-      </c>
-      <c r="C243" t="s">
-        <v>11</v>
+        <v>3000</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E243" t="s">
+        <v>17</v>
       </c>
       <c r="F243" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G243">
-        <v>270</v>
+        <v>150</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>16</v>
+      </c>
+      <c r="B244">
+        <v>15000</v>
+      </c>
+      <c r="C244" t="s">
+        <v>15</v>
+      </c>
+      <c r="F244" t="s">
+        <v>6</v>
+      </c>
+      <c r="G244">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245">
+        <v>30000</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
+        <v>5</v>
+      </c>
+      <c r="G245">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246">
+        <v>40000</v>
+      </c>
+      <c r="C246" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246" t="s">
+        <v>4</v>
+      </c>
+      <c r="G246">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>10</v>
       </c>
-      <c r="B244">
+      <c r="B247">
         <v>5000</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C247" t="s">
         <v>9</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E247" t="s">
         <v>8</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F247" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F245" t="s">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F248" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F246" t="s">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F249" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F247" t="s">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F250" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_SpawnPoints.xlsx
+++ b/Docs/Content/HungryDragonContent_SpawnPoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:J250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1597,7 @@
         <v>88</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f t="shared" ref="G18" si="1">CONCATENATE("TID_SPAWN_POINT_",UPPER(C18),"_",UPPER(B18))</f>
+        <f t="shared" ref="G18:G20" si="1">CONCATENATE("TID_SPAWN_POINT_",UPPER(C18),"_",UPPER(B18))</f>
         <v>TID_SPAWN_POINT_AREA1_S1</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         <v>88</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f t="shared" ref="G19" si="2">CONCATENATE("TID_SPAWN_POINT_",UPPER(C19),"_",UPPER(B19))</f>
+        <f t="shared" si="1"/>
         <v>TID_SPAWN_POINT_AREA2_S2</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
         <v>88</v>
       </c>
       <c r="G20" s="7" t="str">
-        <f t="shared" ref="G20" si="3">CONCATENATE("TID_SPAWN_POINT_",UPPER(C20),"_",UPPER(B20))</f>
+        <f t="shared" si="1"/>
         <v>TID_SPAWN_POINT_AREA3_S3</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_SpawnPoints.xlsx
+++ b/Docs/Content/HungryDragonContent_SpawnPoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dragon\client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="147">
   <si>
     <t>[sku]</t>
   </si>
@@ -835,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -939,6 +939,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,10 +1229,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J250"/>
+  <dimension ref="A1:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,10 +3207,10 @@
       <c r="D87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="13">
         <v>30000</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="13">
         <v>150</v>
       </c>
       <c r="G87" s="12" t="b">
@@ -3217,27 +3224,27 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C88,5,1,""),"_",D88,"_default")</f>
-        <v>sp_tier3_v0_default</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="23">
-        <v>0</v>
-      </c>
-      <c r="F88" s="23">
-        <v>0</v>
-      </c>
-      <c r="G88" s="22" t="b">
-        <v>1</v>
+      <c r="A88" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="25" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C88,5,1,""),"_",D88,"_easy")</f>
+        <v>sp_tier2_s1_easy</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="25">
+        <v>7500</v>
+      </c>
+      <c r="F88" s="25">
+        <v>0</v>
+      </c>
+      <c r="G88" s="18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3245,23 +3252,23 @@
         <v>1</v>
       </c>
       <c r="B89" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C89,5,1,""),"_",D89,"_easy")</f>
-        <v>sp_tier3_v1_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C89,5,1,""),"_",D88,"_medium")</f>
+        <v>sp_tier2_s1_medium</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="E89" s="19">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="F89" s="19">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G89" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>19</v>
@@ -3278,14 +3285,14 @@
         <v>1</v>
       </c>
       <c r="B90" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C90,5,1,""),"_",D89,"_medium")</f>
-        <v>sp_tier3_v1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C90,5,1,""),"_",D88,"_hard")</f>
+        <v>sp_tier2_s1_hard</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="E90" s="19">
         <v>30000</v>
@@ -3294,7 +3301,7 @@
         <v>150</v>
       </c>
       <c r="G90" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>16</v>
@@ -3307,26 +3314,26 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C91,5,1,""),"_",D89,"_hard")</f>
-        <v>sp_tier3_v1_hard</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="19">
-        <v>50000</v>
-      </c>
-      <c r="F91" s="19">
-        <v>150</v>
-      </c>
-      <c r="G91" s="18" t="b">
+      <c r="A91" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C91,5,1,""),"_",D91,"_easy")</f>
+        <v>sp_tier2_s2_easy</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="14">
+        <v>7500</v>
+      </c>
+      <c r="F91" s="14">
+        <v>5</v>
+      </c>
+      <c r="G91" s="16" t="b">
         <v>0</v>
       </c>
       <c r="H91" s="21" t="s">
@@ -3344,23 +3351,23 @@
         <v>1</v>
       </c>
       <c r="B92" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C92,5,1,""),"_",D92,"_easy")</f>
-        <v>sp_tier3_v2_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C92,5,1,""),"_",D91,"_medium")</f>
+        <v>sp_tier2_s2_medium</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="E92" s="14">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="F92" s="14">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G92" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>12</v>
@@ -3372,19 +3379,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C93,5,1,""),"_",D92,"_medium")</f>
-        <v>sp_tier3_v2_medium</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>37</v>
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C93,5,1,""),"_",D91,"_hard")</f>
+        <v>sp_tier2_s2_hard</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="E93" s="14">
         <v>30000</v>
@@ -3392,8 +3399,8 @@
       <c r="F93" s="14">
         <v>150</v>
       </c>
-      <c r="G93" s="16" t="b">
-        <v>1</v>
+      <c r="G93" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>10</v>
@@ -3406,27 +3413,27 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C94,5,1,""),"_",D92,"_hard")</f>
-        <v>sp_tier3_v2_hard</v>
-      </c>
-      <c r="C94" s="14" t="s">
+      <c r="A94" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C94,5,1,""),"_",D94,"_default")</f>
+        <v>sp_tier3_v0_default</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F94" s="14">
-        <v>150</v>
-      </c>
-      <c r="G94" s="16" t="b">
-        <v>0</v>
+      <c r="D94" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="23">
+        <v>0</v>
+      </c>
+      <c r="F94" s="23">
+        <v>0</v>
+      </c>
+      <c r="G94" s="22" t="b">
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>22</v>
@@ -3444,13 +3451,13 @@
       </c>
       <c r="B95" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C95,5,1,""),"_",D95,"_easy")</f>
-        <v>sp_tier3_f1_easy</v>
+        <v>sp_tier3_v1_easy</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E95" s="19">
         <v>2500</v>
@@ -3474,13 +3481,13 @@
       </c>
       <c r="B96" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C96,5,1,""),"_",D95,"_medium")</f>
-        <v>sp_tier3_f1_medium</v>
+        <v>sp_tier3_v1_medium</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E96" s="19">
         <v>30000</v>
@@ -3504,13 +3511,13 @@
       </c>
       <c r="B97" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C97,5,1,""),"_",D95,"_hard")</f>
-        <v>sp_tier3_f1_hard</v>
+        <v>sp_tier3_v1_hard</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E97" s="19">
         <v>50000</v>
@@ -3534,13 +3541,13 @@
       </c>
       <c r="B98" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C98,5,1,""),"_",D98,"_easy")</f>
-        <v>sp_tier3_f2_easy</v>
+        <v>sp_tier3_v2_easy</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E98" s="14">
         <v>2500</v>
@@ -3564,13 +3571,13 @@
       </c>
       <c r="B99" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C99,5,1,""),"_",D98,"_medium")</f>
-        <v>sp_tier3_f2_medium</v>
+        <v>sp_tier3_v2_medium</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E99" s="14">
         <v>30000</v>
@@ -3597,13 +3604,13 @@
       </c>
       <c r="B100" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C100,5,1,""),"_",D98,"_hard")</f>
-        <v>sp_tier3_f2_hard</v>
+        <v>sp_tier3_v2_hard</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E100" s="14">
         <v>50000</v>
@@ -3627,16 +3634,16 @@
       </c>
       <c r="B101" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C101,5,1,""),"_",D101,"_easy")</f>
-        <v>sp_tier3_c1_easy</v>
+        <v>sp_tier3_f1_easy</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E101" s="19">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="F101" s="19">
         <v>0</v>
@@ -3657,19 +3664,19 @@
       </c>
       <c r="B102" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C102,5,1,""),"_",D101,"_medium")</f>
-        <v>sp_tier3_c1_medium</v>
+        <v>sp_tier3_f1_medium</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E102" s="19">
         <v>30000</v>
       </c>
       <c r="F102" s="19">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G102" s="18" t="b">
         <v>1</v>
@@ -3687,19 +3694,19 @@
       </c>
       <c r="B103" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C103,5,1,""),"_",D101,"_hard")</f>
-        <v>sp_tier3_c1_hard</v>
+        <v>sp_tier3_f1_hard</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E103" s="19">
         <v>50000</v>
       </c>
       <c r="F103" s="19">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G103" s="18" t="b">
         <v>0</v>
@@ -3717,16 +3724,16 @@
       </c>
       <c r="B104" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C104,5,1,""),"_",D104,"_easy")</f>
-        <v>sp_tier3_c2_easy</v>
+        <v>sp_tier3_f2_easy</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E104" s="14">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="F104" s="14">
         <v>0</v>
@@ -3750,19 +3757,19 @@
       </c>
       <c r="B105" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C105,5,1,""),"_",D104,"_medium")</f>
-        <v>sp_tier3_c2_medium</v>
+        <v>sp_tier3_f2_medium</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E105" s="14">
         <v>30000</v>
       </c>
       <c r="F105" s="14">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G105" s="16" t="b">
         <v>1</v>
@@ -3774,27 +3781,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="13" t="str">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C106,5,1,""),"_",D104,"_hard")</f>
-        <v>sp_tier3_c2_hard</v>
-      </c>
-      <c r="C106" s="13" t="s">
+        <v>sp_tier3_f2_hard</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E106" s="13">
+      <c r="D106" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="14">
         <v>50000</v>
       </c>
-      <c r="F106" s="13">
-        <v>200</v>
-      </c>
-      <c r="G106" s="12" t="b">
+      <c r="F106" s="14">
+        <v>150</v>
+      </c>
+      <c r="G106" s="16" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="s">
@@ -3810,13 +3817,13 @@
       </c>
       <c r="B107" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C107,5,1,""),"_",D107,"_easy")</f>
-        <v>sp_tier3_m1_easy</v>
-      </c>
-      <c r="C107" s="34" t="s">
+        <v>sp_tier3_c1_easy</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E107" s="19">
         <v>7500</v>
@@ -3840,13 +3847,13 @@
       </c>
       <c r="B108" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C108,5,1,""),"_",D107,"_medium")</f>
-        <v>sp_tier3_m1_medium</v>
+        <v>sp_tier3_c1_medium</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E108" s="19">
         <v>30000</v>
@@ -3870,13 +3877,13 @@
       </c>
       <c r="B109" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C109,5,1,""),"_",D107,"_hard")</f>
-        <v>sp_tier3_m1_hard</v>
+        <v>sp_tier3_c1_hard</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E109" s="19">
         <v>50000</v>
@@ -3894,13 +3901,13 @@
       </c>
       <c r="B110" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C110,5,1,""),"_",D110,"_easy")</f>
-        <v>sp_tier3_m2_easy</v>
+        <v>sp_tier3_c2_easy</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E110" s="14">
         <v>7500</v>
@@ -3918,13 +3925,13 @@
       </c>
       <c r="B111" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C111,5,1,""),"_",D110,"_medium")</f>
-        <v>sp_tier3_m2_medium</v>
+        <v>sp_tier3_c2_medium</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E111" s="14">
         <v>30000</v>
@@ -3942,13 +3949,13 @@
       </c>
       <c r="B112" s="13" t="str">
         <f>CONCATENATE("sp_",REPLACE(C112,5,1,""),"_",D110,"_hard")</f>
-        <v>sp_tier3_m2_hard</v>
+        <v>sp_tier3_c2_hard</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E112" s="13">
         <v>50000</v>
@@ -3966,16 +3973,16 @@
       </c>
       <c r="B113" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C113,5,1,""),"_",D113,"_easy")</f>
-        <v>sp_tier3_w1_easy</v>
+        <v>sp_tier3_m1_easy</v>
       </c>
       <c r="C113" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E113" s="19">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="F113" s="19">
         <v>0</v>
@@ -3990,13 +3997,13 @@
       </c>
       <c r="B114" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C114,5,1,""),"_",D113,"_medium")</f>
-        <v>sp_tier3_w1_medium</v>
+        <v>sp_tier3_m1_medium</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E114" s="19">
         <v>30000</v>
@@ -4014,19 +4021,19 @@
       </c>
       <c r="B115" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C115,5,1,""),"_",D113,"_hard")</f>
-        <v>sp_tier3_w1_hard</v>
+        <v>sp_tier3_m1_hard</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E115" s="19">
-        <v>8000</v>
+        <v>50000</v>
       </c>
       <c r="F115" s="19">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G115" s="18" t="b">
         <v>0</v>
@@ -4038,16 +4045,16 @@
       </c>
       <c r="B116" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C116,5,1,""),"_",D116,"_easy")</f>
-        <v>sp_tier3_w2_easy</v>
+        <v>sp_tier3_m2_easy</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E116" s="14">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="F116" s="14">
         <v>0</v>
@@ -4062,13 +4069,13 @@
       </c>
       <c r="B117" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C117,5,1,""),"_",D116,"_medium")</f>
-        <v>sp_tier3_w2_medium</v>
+        <v>sp_tier3_m2_medium</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E117" s="14">
         <v>30000</v>
@@ -4086,13 +4093,13 @@
       </c>
       <c r="B118" s="13" t="str">
         <f>CONCATENATE("sp_",REPLACE(C118,5,1,""),"_",D116,"_hard")</f>
-        <v>sp_tier3_w2_hard</v>
+        <v>sp_tier3_m2_hard</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E118" s="13">
         <v>50000</v>
@@ -4110,13 +4117,13 @@
       </c>
       <c r="B119" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C119,5,1,""),"_",D119,"_easy")</f>
-        <v>sp_tier3_d1_easy</v>
+        <v>sp_tier3_w1_easy</v>
       </c>
       <c r="C119" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E119" s="19">
         <v>10000</v>
@@ -4134,13 +4141,13 @@
       </c>
       <c r="B120" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C120,5,1,""),"_",D119,"_medium")</f>
-        <v>sp_tier3_d1_medium</v>
+        <v>sp_tier3_w1_medium</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E120" s="19">
         <v>30000</v>
@@ -4158,19 +4165,19 @@
       </c>
       <c r="B121" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C121,5,1,""),"_",D119,"_hard")</f>
-        <v>sp_tier3_d1_hard</v>
+        <v>sp_tier3_w1_hard</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E121" s="19">
         <v>8000</v>
       </c>
       <c r="F121" s="19">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G121" s="18" t="b">
         <v>0</v>
@@ -4182,16 +4189,16 @@
       </c>
       <c r="B122" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C122,5,1,""),"_",D122,"_easy")</f>
-        <v>sp_tier3_d2_easy</v>
+        <v>sp_tier3_w2_easy</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E122" s="14">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="F122" s="14">
         <v>0</v>
@@ -4206,13 +4213,13 @@
       </c>
       <c r="B123" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C123,5,1,""),"_",D122,"_medium")</f>
-        <v>sp_tier3_d2_medium</v>
+        <v>sp_tier3_w2_medium</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E123" s="14">
         <v>30000</v>
@@ -4230,13 +4237,13 @@
       </c>
       <c r="B124" s="13" t="str">
         <f>CONCATENATE("sp_",REPLACE(C124,5,1,""),"_",D122,"_hard")</f>
-        <v>sp_tier3_d2_hard</v>
-      </c>
-      <c r="C124" s="14" t="s">
+        <v>sp_tier3_w2_hard</v>
+      </c>
+      <c r="C124" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E124" s="13">
         <v>50000</v>
@@ -4249,27 +4256,27 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C125,5,1,""),"_",D125,"_default")</f>
-        <v>sp_tier4_v0_default</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E125" s="23">
-        <v>0</v>
-      </c>
-      <c r="F125" s="23">
-        <v>0</v>
-      </c>
-      <c r="G125" s="22" t="b">
-        <v>1</v>
+      <c r="A125" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C125,5,1,""),"_",D125,"_easy")</f>
+        <v>sp_tier3_d1_easy</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F125" s="19">
+        <v>0</v>
+      </c>
+      <c r="G125" s="18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4277,23 +4284,23 @@
         <v>1</v>
       </c>
       <c r="B126" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C126,5,1,""),"_",D126,"_easy")</f>
-        <v>sp_tier4_v1_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C126,5,1,""),"_",D125,"_medium")</f>
+        <v>sp_tier3_d1_medium</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E126" s="19">
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="F126" s="19">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G126" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>19</v>
@@ -4310,23 +4317,23 @@
         <v>1</v>
       </c>
       <c r="B127" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C127,5,1,""),"_",D126,"_medium")</f>
-        <v>sp_tier4_v1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C127,5,1,""),"_",D125,"_hard")</f>
+        <v>sp_tier3_d1_hard</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E127" s="19">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="F127" s="19">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G127" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="s">
         <v>16</v>
@@ -4339,26 +4346,26 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C128,5,1,""),"_",D126,"_hard")</f>
-        <v>sp_tier4_v1_hard</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E128" s="19">
-        <v>60000</v>
-      </c>
-      <c r="F128" s="19">
-        <v>180</v>
-      </c>
-      <c r="G128" s="18" t="b">
+      <c r="A128" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C128,5,1,""),"_",D128,"_easy")</f>
+        <v>sp_tier3_d2_easy</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F128" s="14">
+        <v>0</v>
+      </c>
+      <c r="G128" s="16" t="b">
         <v>0</v>
       </c>
       <c r="H128" t="s">
@@ -4376,23 +4383,23 @@
         <v>1</v>
       </c>
       <c r="B129" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C129,5,1,""),"_",D129,"_easy")</f>
-        <v>sp_tier4_v2_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C129,5,1,""),"_",D128,"_medium")</f>
+        <v>sp_tier3_d2_medium</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E129" s="14">
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="F129" s="14">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G129" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" s="21" t="s">
         <v>12</v>
@@ -4404,28 +4411,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C130,5,1,""),"_",D129,"_medium")</f>
-        <v>sp_tier4_v2_medium</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E130" s="14">
-        <v>40000</v>
-      </c>
-      <c r="F130" s="14">
-        <v>180</v>
-      </c>
-      <c r="G130" s="16" t="b">
-        <v>1</v>
+    <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C130,5,1,""),"_",D128,"_hard")</f>
+        <v>sp_tier3_d2_hard</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="13">
+        <v>50000</v>
+      </c>
+      <c r="F130" s="13">
+        <v>200</v>
+      </c>
+      <c r="G130" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="H130" t="s">
         <v>10</v>
@@ -4438,26 +4445,26 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B131" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C131,5,1,""),"_",D129,"_hard")</f>
-        <v>sp_tier4_v2_hard</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E131" s="14">
-        <v>60000</v>
-      </c>
-      <c r="F131" s="14">
-        <v>180</v>
-      </c>
-      <c r="G131" s="16" t="b">
+      <c r="A131" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C131,5,1,""),"_",D131,"_easy")</f>
+        <v>sp_tier3_s1_easy</v>
+      </c>
+      <c r="C131" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F131" s="19">
+        <v>0</v>
+      </c>
+      <c r="G131" s="18" t="b">
         <v>0</v>
       </c>
       <c r="H131" t="s">
@@ -4475,23 +4482,23 @@
         <v>1</v>
       </c>
       <c r="B132" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C132,5,1,""),"_",D132,"_easy")</f>
-        <v>sp_tier4_f1_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C132,5,1,""),"_",D131,"_medium")</f>
+        <v>sp_tier3_s1_medium</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E132" s="19">
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="F132" s="19">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G132" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="s">
         <v>6</v>
@@ -4505,23 +4512,23 @@
         <v>1</v>
       </c>
       <c r="B133" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C133,5,1,""),"_",D132,"_medium")</f>
-        <v>sp_tier4_f1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C133,5,1,""),"_",D131,"_hard")</f>
+        <v>sp_tier3_s1_hard</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E133" s="19">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="F133" s="19">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G133" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" s="21" t="s">
         <v>5</v>
@@ -4531,26 +4538,26 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C134,5,1,""),"_",D132,"_hard")</f>
-        <v>sp_tier4_f1_hard</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E134" s="19">
-        <v>60000</v>
-      </c>
-      <c r="F134" s="19">
-        <v>180</v>
-      </c>
-      <c r="G134" s="18" t="b">
+      <c r="A134" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C134,5,1,""),"_",D134,"_easy")</f>
+        <v>sp_tier3_s2_easy</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F134" s="14">
+        <v>0</v>
+      </c>
+      <c r="G134" s="16" t="b">
         <v>0</v>
       </c>
       <c r="I134" t="s">
@@ -4565,23 +4572,23 @@
         <v>1</v>
       </c>
       <c r="B135" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C135,5,1,""),"_",D135,"_easy")</f>
-        <v>sp_tier4_f2_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C135,5,1,""),"_",D134,"_medium")</f>
+        <v>sp_tier3_s2_medium</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="E135" s="14">
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="F135" s="14">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G135" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>32</v>
@@ -4590,28 +4597,28 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B136" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C136,5,1,""),"_",D135,"_medium")</f>
-        <v>sp_tier4_f2_medium</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136" s="14">
-        <v>40000</v>
-      </c>
-      <c r="F136" s="14">
-        <v>230</v>
-      </c>
-      <c r="G136" s="16" t="b">
-        <v>1</v>
+    <row r="136" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C136,5,1,""),"_",D134,"_hard")</f>
+        <v>sp_tier3_s2_hard</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="13">
+        <v>50000</v>
+      </c>
+      <c r="F136" s="13">
+        <v>200</v>
+      </c>
+      <c r="G136" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="H136" t="s">
         <v>17</v>
@@ -4624,26 +4631,26 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C137,5,1,""),"_",D135,"_hard")</f>
-        <v>sp_tier4_f2_hard</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137" s="14">
-        <v>60000</v>
-      </c>
-      <c r="F137" s="14">
-        <v>230</v>
-      </c>
-      <c r="G137" s="16" t="b">
+      <c r="A137" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C137,5,1,""),"_",D137,"_easy")</f>
+        <v>sp_tier3_s3_easy</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F137" s="19">
+        <v>0</v>
+      </c>
+      <c r="G137" s="18" t="b">
         <v>0</v>
       </c>
       <c r="I137" t="s">
@@ -4658,23 +4665,23 @@
         <v>1</v>
       </c>
       <c r="B138" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C138,5,1,""),"_",D138,"_easy")</f>
-        <v>sp_tier4_c1_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C138,5,1,""),"_",D137,"_medium")</f>
+        <v>sp_tier3_s3_medium</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="E138" s="19">
-        <v>7500</v>
+        <v>30000</v>
       </c>
       <c r="F138" s="19">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G138" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" s="21" t="s">
         <v>5</v>
@@ -4683,28 +4690,28 @@
         <v>230</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B139" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C139,5,1,""),"_",D138,"_medium")</f>
-        <v>sp_tier4_c1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C139,5,1,""),"_",D137,"_hard")</f>
+        <v>sp_tier3_s3_hard</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="E139" s="19">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="F139" s="19">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G139" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="s">
         <v>4</v>
@@ -4714,27 +4721,27 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C140,5,1,""),"_",D138,"_hard")</f>
-        <v>sp_tier4_c1_hard</v>
-      </c>
-      <c r="C140" s="19" t="s">
+      <c r="A140" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C140,5,1,""),"_",D140,"_default")</f>
+        <v>sp_tier4_v0_default</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D140" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E140" s="19">
-        <v>60000</v>
-      </c>
-      <c r="F140" s="19">
-        <v>230</v>
-      </c>
-      <c r="G140" s="18" t="b">
-        <v>0</v>
+      <c r="D140" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="23">
+        <v>0</v>
+      </c>
+      <c r="F140" s="23">
+        <v>0</v>
+      </c>
+      <c r="G140" s="22" t="b">
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>32</v>
@@ -4744,26 +4751,26 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B141" s="14" t="str">
+      <c r="A141" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C141,5,1,""),"_",D141,"_easy")</f>
-        <v>sp_tier4_c2_easy</v>
-      </c>
-      <c r="C141" s="14" t="s">
+        <v>sp_tier4_v1_easy</v>
+      </c>
+      <c r="C141" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D141" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E141" s="14">
-        <v>7500</v>
-      </c>
-      <c r="F141" s="14">
-        <v>0</v>
-      </c>
-      <c r="G141" s="16" t="b">
+      <c r="D141" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" s="19">
+        <v>2500</v>
+      </c>
+      <c r="F141" s="19">
+        <v>0</v>
+      </c>
+      <c r="G141" s="18" t="b">
         <v>0</v>
       </c>
       <c r="H141" t="s">
@@ -4777,26 +4784,26 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="14" t="str">
+      <c r="A142" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C142,5,1,""),"_",D141,"_medium")</f>
-        <v>sp_tier4_c2_medium</v>
-      </c>
-      <c r="C142" s="14" t="s">
+        <v>sp_tier4_v1_medium</v>
+      </c>
+      <c r="C142" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D142" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E142" s="14">
+      <c r="D142" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="19">
         <v>40000</v>
       </c>
-      <c r="F142" s="14">
-        <v>230</v>
-      </c>
-      <c r="G142" s="16" t="b">
+      <c r="F142" s="19">
+        <v>180</v>
+      </c>
+      <c r="G142" s="18" t="b">
         <v>1</v>
       </c>
       <c r="I142" t="s">
@@ -4806,27 +4813,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" s="13" t="str">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C143,5,1,""),"_",D141,"_hard")</f>
-        <v>sp_tier4_c2_hard</v>
-      </c>
-      <c r="C143" s="13" t="s">
+        <v>sp_tier4_v1_hard</v>
+      </c>
+      <c r="C143" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D143" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E143" s="13">
+      <c r="D143" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="19">
         <v>60000</v>
       </c>
-      <c r="F143" s="13">
-        <v>230</v>
-      </c>
-      <c r="G143" s="12" t="b">
+      <c r="F143" s="19">
+        <v>180</v>
+      </c>
+      <c r="G143" s="18" t="b">
         <v>0</v>
       </c>
       <c r="I143" s="21" t="s">
@@ -4837,26 +4844,26 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="19" t="str">
+      <c r="A144" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C144,5,1,""),"_",D144,"_easy")</f>
-        <v>sp_tier4_m1_easy</v>
-      </c>
-      <c r="C144" s="34" t="s">
+        <v>sp_tier4_v2_easy</v>
+      </c>
+      <c r="C144" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D144" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E144" s="19">
-        <v>7500</v>
-      </c>
-      <c r="F144" s="19">
-        <v>0</v>
-      </c>
-      <c r="G144" s="18" t="b">
+      <c r="D144" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E144" s="14">
+        <v>2500</v>
+      </c>
+      <c r="F144" s="14">
+        <v>0</v>
+      </c>
+      <c r="G144" s="16" t="b">
         <v>0</v>
       </c>
       <c r="I144" t="s">
@@ -4867,26 +4874,26 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="19" t="str">
+      <c r="A145" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C145,5,1,""),"_",D144,"_medium")</f>
-        <v>sp_tier4_m1_medium</v>
-      </c>
-      <c r="C145" s="19" t="s">
+        <v>sp_tier4_v2_medium</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D145" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E145" s="19">
+      <c r="D145" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="14">
         <v>40000</v>
       </c>
-      <c r="F145" s="19">
-        <v>230</v>
-      </c>
-      <c r="G145" s="18" t="b">
+      <c r="F145" s="14">
+        <v>180</v>
+      </c>
+      <c r="G145" s="16" t="b">
         <v>1</v>
       </c>
       <c r="H145" t="s">
@@ -4897,435 +4904,435 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" s="19" t="str">
+      <c r="A146" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C146,5,1,""),"_",D144,"_hard")</f>
+        <v>sp_tier4_v2_hard</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E146" s="14">
+        <v>60000</v>
+      </c>
+      <c r="F146" s="14">
+        <v>180</v>
+      </c>
+      <c r="G146" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C147,5,1,""),"_",D147,"_easy")</f>
+        <v>sp_tier4_f1_easy</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="19">
+        <v>2500</v>
+      </c>
+      <c r="F147" s="19">
+        <v>0</v>
+      </c>
+      <c r="G147" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C148,5,1,""),"_",D147,"_medium")</f>
+        <v>sp_tier4_f1_medium</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F148" s="19">
+        <v>180</v>
+      </c>
+      <c r="G148" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C149,5,1,""),"_",D147,"_hard")</f>
+        <v>sp_tier4_f1_hard</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="19">
+        <v>60000</v>
+      </c>
+      <c r="F149" s="19">
+        <v>180</v>
+      </c>
+      <c r="G149" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C150,5,1,""),"_",D150,"_easy")</f>
+        <v>sp_tier4_f2_easy</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="14">
+        <v>2500</v>
+      </c>
+      <c r="F150" s="14">
+        <v>0</v>
+      </c>
+      <c r="G150" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C151,5,1,""),"_",D150,"_medium")</f>
+        <v>sp_tier4_f2_medium</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F151" s="14">
+        <v>230</v>
+      </c>
+      <c r="G151" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C152,5,1,""),"_",D150,"_hard")</f>
+        <v>sp_tier4_f2_hard</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="14">
+        <v>60000</v>
+      </c>
+      <c r="F152" s="14">
+        <v>230</v>
+      </c>
+      <c r="G152" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C153,5,1,""),"_",D153,"_easy")</f>
+        <v>sp_tier4_c1_easy</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="19">
+        <v>7500</v>
+      </c>
+      <c r="F153" s="19">
+        <v>0</v>
+      </c>
+      <c r="G153" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C154,5,1,""),"_",D153,"_medium")</f>
+        <v>sp_tier4_c1_medium</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F154" s="19">
+        <v>230</v>
+      </c>
+      <c r="G154" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C155,5,1,""),"_",D153,"_hard")</f>
+        <v>sp_tier4_c1_hard</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="19">
+        <v>60000</v>
+      </c>
+      <c r="F155" s="19">
+        <v>230</v>
+      </c>
+      <c r="G155" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C156,5,1,""),"_",D156,"_easy")</f>
+        <v>sp_tier4_c2_easy</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" s="14">
+        <v>7500</v>
+      </c>
+      <c r="F156" s="14">
+        <v>0</v>
+      </c>
+      <c r="G156" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C157,5,1,""),"_",D156,"_medium")</f>
+        <v>sp_tier4_c2_medium</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F157" s="14">
+        <v>230</v>
+      </c>
+      <c r="G157" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C158,5,1,""),"_",D156,"_hard")</f>
+        <v>sp_tier4_c2_hard</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" s="13">
+        <v>60000</v>
+      </c>
+      <c r="F158" s="13">
+        <v>230</v>
+      </c>
+      <c r="G158" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C159,5,1,""),"_",D159,"_easy")</f>
+        <v>sp_tier4_m1_easy</v>
+      </c>
+      <c r="C159" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" s="19">
+        <v>7500</v>
+      </c>
+      <c r="F159" s="19">
+        <v>0</v>
+      </c>
+      <c r="G159" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C160,5,1,""),"_",D159,"_medium")</f>
+        <v>sp_tier4_m1_medium</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F160" s="19">
+        <v>230</v>
+      </c>
+      <c r="G160" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C161,5,1,""),"_",D159,"_hard")</f>
         <v>sp_tier4_m1_hard</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C161" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D146" s="19" t="s">
+      <c r="D161" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E146" s="19">
+      <c r="E161" s="19">
         <v>60000</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F161" s="19">
         <v>230</v>
       </c>
-      <c r="G146" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C147,5,1,""),"_",D147,"_easy")</f>
+      <c r="G161" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C162,5,1,""),"_",D162,"_easy")</f>
         <v>sp_tier4_m2_easy</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C162" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D162" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E162" s="14">
         <v>7500</v>
       </c>
-      <c r="F147" s="14">
-        <v>0</v>
-      </c>
-      <c r="G147" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B148" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C148,5,1,""),"_",D147,"_medium")</f>
+      <c r="F162" s="14">
+        <v>0</v>
+      </c>
+      <c r="G162" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C163,5,1,""),"_",D162,"_medium")</f>
         <v>sp_tier4_m2_medium</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C163" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D163" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E148" s="14">
+      <c r="E163" s="14">
         <v>40000</v>
       </c>
-      <c r="F148" s="14">
+      <c r="F163" s="14">
         <v>230</v>
       </c>
-      <c r="G148" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C149,5,1,""),"_",D147,"_hard")</f>
-        <v>sp_tier4_m2_hard</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E149" s="13">
-        <v>60000</v>
-      </c>
-      <c r="F149" s="13">
-        <v>230</v>
-      </c>
-      <c r="G149" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C150,5,1,""),"_",D150,"_easy")</f>
-        <v>sp_tier4_w1_easy</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E150" s="19">
-        <v>10000</v>
-      </c>
-      <c r="F150" s="19">
-        <v>0</v>
-      </c>
-      <c r="G150" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C151,5,1,""),"_",D150,"_medium")</f>
-        <v>sp_tier4_w1_medium</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D151" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E151" s="19">
-        <v>40000</v>
-      </c>
-      <c r="F151" s="19">
-        <v>230</v>
-      </c>
-      <c r="G151" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C152,5,1,""),"_",D150,"_hard")</f>
-        <v>sp_tier4_w1_hard</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D152" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E152" s="19">
-        <v>60000</v>
-      </c>
-      <c r="F152" s="19">
-        <v>230</v>
-      </c>
-      <c r="G152" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B153" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C153,5,1,""),"_",D153,"_easy")</f>
-        <v>sp_tier4_w2_easy</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D153" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F153" s="14">
-        <v>0</v>
-      </c>
-      <c r="G153" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C154,5,1,""),"_",D153,"_medium")</f>
-        <v>sp_tier4_w2_medium</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E154" s="14">
-        <v>40000</v>
-      </c>
-      <c r="F154" s="14">
-        <v>230</v>
-      </c>
-      <c r="G154" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C155,5,1,""),"_",D153,"_hard")</f>
-        <v>sp_tier4_w2_hard</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E155" s="13">
-        <v>60000</v>
-      </c>
-      <c r="F155" s="13">
-        <v>230</v>
-      </c>
-      <c r="G155" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C156,5,1,""),"_",D156,"_easy")</f>
-        <v>sp_tier4_d1_easy</v>
-      </c>
-      <c r="C156" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E156" s="19">
-        <v>10000</v>
-      </c>
-      <c r="F156" s="19">
-        <v>0</v>
-      </c>
-      <c r="G156" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C157,5,1,""),"_",D156,"_medium")</f>
-        <v>sp_tier4_d1_medium</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E157" s="19">
-        <v>40000</v>
-      </c>
-      <c r="F157" s="19">
-        <v>230</v>
-      </c>
-      <c r="G157" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C158,5,1,""),"_",D156,"_hard")</f>
-        <v>sp_tier4_d1_hard</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E158" s="19">
-        <v>60000</v>
-      </c>
-      <c r="F158" s="19">
-        <v>230</v>
-      </c>
-      <c r="G158" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B159" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C159,5,1,""),"_",D159,"_easy")</f>
-        <v>sp_tier4_d2_easy</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E159" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F159" s="14">
-        <v>0</v>
-      </c>
-      <c r="G159" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C160,5,1,""),"_",D159,"_medium")</f>
-        <v>sp_tier4_d2_medium</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E160" s="14">
-        <v>40000</v>
-      </c>
-      <c r="F160" s="14">
-        <v>230</v>
-      </c>
-      <c r="G160" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C161,5,1,""),"_",D159,"_hard")</f>
-        <v>sp_tier4_d2_hard</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E161" s="13">
-        <v>60000</v>
-      </c>
-      <c r="F161" s="13">
-        <v>230</v>
-      </c>
-      <c r="G161" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C162,5,1,""),"_",D162,"_default")</f>
-        <v>sp_tier5_v0_default</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E162" s="23">
-        <v>0</v>
-      </c>
-      <c r="F162" s="23">
-        <v>0</v>
-      </c>
-      <c r="G162" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B163" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C163,5,1,""),"_",D163,"_easy")</f>
-        <v>sp_tier5_v1_easy</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E163" s="19">
-        <v>2500</v>
-      </c>
-      <c r="F163" s="19">
-        <v>0</v>
-      </c>
-      <c r="G163" s="18" t="b">
-        <v>0</v>
+      <c r="G163" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>19</v>
@@ -5337,28 +5344,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C164,5,1,""),"_",D163,"_medium")</f>
-        <v>sp_tier5_v1_medium</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D164" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E164" s="19">
-        <v>50000</v>
-      </c>
-      <c r="F164" s="19">
+    <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C164,5,1,""),"_",D162,"_hard")</f>
+        <v>sp_tier4_m2_hard</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" s="13">
+        <v>60000</v>
+      </c>
+      <c r="F164" s="13">
         <v>230</v>
       </c>
-      <c r="G164" s="18" t="b">
-        <v>1</v>
+      <c r="G164" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="H164" t="s">
         <v>16</v>
@@ -5375,20 +5382,20 @@
         <v>1</v>
       </c>
       <c r="B165" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C165,5,1,""),"_",D163,"_hard")</f>
-        <v>sp_tier5_v1_hard</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>26</v>
+        <f>CONCATENATE("sp_",REPLACE(C165,5,1,""),"_",D165,"_easy")</f>
+        <v>sp_tier4_w1_easy</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E165" s="19">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="F165" s="19">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G165" s="18" t="b">
         <v>0</v>
@@ -5404,27 +5411,27 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B166" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C166,5,1,""),"_",D166,"_easy")</f>
-        <v>sp_tier5_v2_easy</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E166" s="14">
-        <v>2500</v>
-      </c>
-      <c r="F166" s="14">
-        <v>5</v>
-      </c>
-      <c r="G166" s="16" t="b">
-        <v>0</v>
+      <c r="A166" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C166,5,1,""),"_",D165,"_medium")</f>
+        <v>sp_tier4_w1_medium</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F166" s="19">
+        <v>230</v>
+      </c>
+      <c r="G166" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>12</v>
@@ -5437,27 +5444,27 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C167,5,1,""),"_",D166,"_medium")</f>
-        <v>sp_tier5_v2_medium</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E167" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F167" s="14">
+      <c r="A167" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C167,5,1,""),"_",D165,"_hard")</f>
+        <v>sp_tier4_w1_hard</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="19">
+        <v>60000</v>
+      </c>
+      <c r="F167" s="19">
         <v>230</v>
       </c>
-      <c r="G167" s="16" t="b">
-        <v>1</v>
+      <c r="G167" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H167" s="21" t="s">
         <v>10</v>
@@ -5474,20 +5481,20 @@
         <v>1</v>
       </c>
       <c r="B168" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C168,5,1,""),"_",D166,"_hard")</f>
-        <v>sp_tier5_v2_hard</v>
+        <f>CONCATENATE("sp_",REPLACE(C168,5,1,""),"_",D168,"_easy")</f>
+        <v>sp_tier4_w2_easy</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E168" s="14">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="F168" s="14">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G168" s="16" t="b">
         <v>0</v>
@@ -5503,27 +5510,27 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B169" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C169,5,1,""),"_",D169,"_easy")</f>
-        <v>sp_tier5_f1_easy</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E169" s="19">
-        <v>2500</v>
-      </c>
-      <c r="F169" s="19">
-        <v>0</v>
-      </c>
-      <c r="G169" s="18" t="b">
-        <v>0</v>
+      <c r="A169" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C169,5,1,""),"_",D168,"_medium")</f>
+        <v>sp_tier4_w2_medium</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F169" s="14">
+        <v>230</v>
+      </c>
+      <c r="G169" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="I169" t="s">
         <v>6</v>
@@ -5532,28 +5539,28 @@
         <v>150</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B170" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C170,5,1,""),"_",D169,"_medium")</f>
-        <v>sp_tier5_f1_medium</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D170" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E170" s="19">
-        <v>50000</v>
-      </c>
-      <c r="F170" s="19">
+    <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C170,5,1,""),"_",D168,"_hard")</f>
+        <v>sp_tier4_w2_hard</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="13">
+        <v>60000</v>
+      </c>
+      <c r="F170" s="13">
         <v>230</v>
       </c>
-      <c r="G170" s="18" t="b">
-        <v>1</v>
+      <c r="G170" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="I170" t="s">
         <v>5</v>
@@ -5567,20 +5574,20 @@
         <v>1</v>
       </c>
       <c r="B171" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C171,5,1,""),"_",D169,"_hard")</f>
-        <v>sp_tier5_f1_hard</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>26</v>
+        <f>CONCATENATE("sp_",REPLACE(C171,5,1,""),"_",D171,"_easy")</f>
+        <v>sp_tier4_d1_easy</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E171" s="19">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="F171" s="19">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G171" s="18" t="b">
         <v>0</v>
@@ -5593,27 +5600,27 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B172" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C172,5,1,""),"_",D172,"_easy")</f>
-        <v>sp_tier5_f2_easy</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D172" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" s="14">
-        <v>2500</v>
-      </c>
-      <c r="F172" s="14">
-        <v>0</v>
-      </c>
-      <c r="G172" s="16" t="b">
-        <v>0</v>
+      <c r="A172" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C172,5,1,""),"_",D171,"_medium")</f>
+        <v>sp_tier4_d1_medium</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F172" s="19">
+        <v>230</v>
+      </c>
+      <c r="G172" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>32</v>
@@ -5623,27 +5630,27 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B173" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C173,5,1,""),"_",D172,"_medium")</f>
-        <v>sp_tier5_f2_medium</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E173" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F173" s="14">
+      <c r="A173" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C173,5,1,""),"_",D171,"_hard")</f>
+        <v>sp_tier4_d1_hard</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D173" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="19">
+        <v>60000</v>
+      </c>
+      <c r="F173" s="19">
         <v>230</v>
       </c>
-      <c r="G173" s="16" t="b">
-        <v>1</v>
+      <c r="G173" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H173" t="s">
         <v>17</v>
@@ -5660,20 +5667,20 @@
         <v>1</v>
       </c>
       <c r="B174" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C174,5,1,""),"_",D172,"_hard")</f>
-        <v>sp_tier5_f2_hard</v>
+        <f>CONCATENATE("sp_",REPLACE(C174,5,1,""),"_",D174,"_easy")</f>
+        <v>sp_tier4_d2_easy</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E174" s="14">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="F174" s="14">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G174" s="16" t="b">
         <v>0</v>
@@ -5686,27 +5693,27 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C175,5,1,""),"_",D175,"_easy")</f>
-        <v>sp_tier5_c1_easy</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D175" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E175" s="19">
-        <v>7500</v>
-      </c>
-      <c r="F175" s="19">
-        <v>0</v>
-      </c>
-      <c r="G175" s="18" t="b">
-        <v>0</v>
+      <c r="A175" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C175,5,1,""),"_",D174,"_medium")</f>
+        <v>sp_tier4_d2_medium</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F175" s="14">
+        <v>230</v>
+      </c>
+      <c r="G175" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="I175" t="s">
         <v>5</v>
@@ -5715,28 +5722,28 @@
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C176,5,1,""),"_",D175,"_medium")</f>
-        <v>sp_tier5_c1_medium</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D176" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E176" s="19">
-        <v>50000</v>
-      </c>
-      <c r="F176" s="19">
-        <v>270</v>
-      </c>
-      <c r="G176" s="18" t="b">
-        <v>1</v>
+    <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C176,5,1,""),"_",D174,"_hard")</f>
+        <v>sp_tier4_d2_hard</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" s="13">
+        <v>60000</v>
+      </c>
+      <c r="F176" s="13">
+        <v>230</v>
+      </c>
+      <c r="G176" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="I176" s="21" t="s">
         <v>4</v>
@@ -5750,20 +5757,20 @@
         <v>1</v>
       </c>
       <c r="B177" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C177,5,1,""),"_",D175,"_hard")</f>
-        <v>sp_tier5_c1_hard</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>26</v>
+        <f>CONCATENATE("sp_",REPLACE(C177,5,1,""),"_",D177,"_easy")</f>
+        <v>sp_tier4_s1_easy</v>
+      </c>
+      <c r="C177" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="E177" s="19">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="F177" s="19">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G177" s="18" t="b">
         <v>0</v>
@@ -5776,27 +5783,27 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C178,5,1,""),"_",D178,"_easy")</f>
-        <v>sp_tier5_c2_easy</v>
-      </c>
-      <c r="C178" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D178" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E178" s="14">
-        <v>7500</v>
-      </c>
-      <c r="F178" s="14">
-        <v>0</v>
-      </c>
-      <c r="G178" s="16" t="b">
-        <v>0</v>
+      <c r="A178" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C178,5,1,""),"_",D177,"_medium")</f>
+        <v>sp_tier4_s1_medium</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E178" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F178" s="19">
+        <v>230</v>
+      </c>
+      <c r="G178" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="H178" t="s">
         <v>8</v>
@@ -5809,27 +5816,27 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C179,5,1,""),"_",D178,"_medium")</f>
-        <v>sp_tier5_c2_medium</v>
-      </c>
-      <c r="C179" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D179" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E179" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F179" s="14">
-        <v>270</v>
-      </c>
-      <c r="G179" s="16" t="b">
-        <v>1</v>
+      <c r="A179" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C179,5,1,""),"_",D177,"_hard")</f>
+        <v>sp_tier4_s1_hard</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E179" s="19">
+        <v>60000</v>
+      </c>
+      <c r="F179" s="19">
+        <v>230</v>
+      </c>
+      <c r="G179" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="I179" t="s">
         <v>6</v>
@@ -5838,27 +5845,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C180,5,1,""),"_",D178,"_hard")</f>
-        <v>sp_tier5_c2_hard</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D180" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E180" s="13">
-        <v>70000</v>
-      </c>
-      <c r="F180" s="13">
-        <v>270</v>
-      </c>
-      <c r="G180" s="12" t="b">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C180,5,1,""),"_",D180,"_easy")</f>
+        <v>sp_tier4_s2_easy</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E180" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F180" s="14">
+        <v>0</v>
+      </c>
+      <c r="G180" s="16" t="b">
         <v>0</v>
       </c>
       <c r="I180" t="s">
@@ -5869,27 +5876,27 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B181" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C181,5,1,""),"_",D181,"_easy")</f>
-        <v>sp_tier5_m1_easy</v>
-      </c>
-      <c r="C181" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D181" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E181" s="19">
-        <v>7500</v>
-      </c>
-      <c r="F181" s="19">
-        <v>0</v>
-      </c>
-      <c r="G181" s="18" t="b">
-        <v>0</v>
+      <c r="A181" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C181,5,1,""),"_",D180,"_medium")</f>
+        <v>sp_tier4_s2_medium</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E181" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F181" s="14">
+        <v>230</v>
+      </c>
+      <c r="G181" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="I181" s="21" t="s">
         <v>4</v>
@@ -5898,28 +5905,28 @@
         <v>270</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C182,5,1,""),"_",D181,"_medium")</f>
-        <v>sp_tier5_m1_medium</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D182" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E182" s="19">
-        <v>50000</v>
-      </c>
-      <c r="F182" s="19">
-        <v>270</v>
-      </c>
-      <c r="G182" s="18" t="b">
-        <v>1</v>
+    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C182,5,1,""),"_",D180,"_hard")</f>
+        <v>sp_tier4_s2_hard</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E182" s="13">
+        <v>60000</v>
+      </c>
+      <c r="F182" s="13">
+        <v>230</v>
+      </c>
+      <c r="G182" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="H182" t="s">
         <v>32</v>
@@ -5933,95 +5940,95 @@
         <v>1</v>
       </c>
       <c r="B183" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C183,5,1,""),"_",D181,"_hard")</f>
-        <v>sp_tier5_m1_hard</v>
-      </c>
-      <c r="C183" s="19" t="s">
+        <f>CONCATENATE("sp_",REPLACE(C183,5,1,""),"_",D183,"_easy")</f>
+        <v>sp_tier4_s3_easy</v>
+      </c>
+      <c r="C183" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E183" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F183" s="19">
+        <v>0</v>
+      </c>
+      <c r="G183" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C184,5,1,""),"_",D183,"_medium")</f>
+        <v>sp_tier4_s3_medium</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E184" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F184" s="19">
+        <v>230</v>
+      </c>
+      <c r="G184" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C185,5,1,""),"_",D183,"_hard")</f>
+        <v>sp_tier4_s3_hard</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E185" s="19">
+        <v>60000</v>
+      </c>
+      <c r="F185" s="19">
+        <v>230</v>
+      </c>
+      <c r="G185" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C186,5,1,""),"_",D186,"_default")</f>
+        <v>sp_tier5_v0_default</v>
+      </c>
+      <c r="C186" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D183" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E183" s="19">
-        <v>70000</v>
-      </c>
-      <c r="F183" s="19">
-        <v>270</v>
-      </c>
-      <c r="G183" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B184" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C184,5,1,""),"_",D184,"_easy")</f>
-        <v>sp_tier5_m2_easy</v>
-      </c>
-      <c r="C184" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D184" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E184" s="14">
-        <v>7500</v>
-      </c>
-      <c r="F184" s="14">
-        <v>0</v>
-      </c>
-      <c r="G184" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B185" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C185,5,1,""),"_",D184,"_medium")</f>
-        <v>sp_tier5_m2_medium</v>
-      </c>
-      <c r="C185" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E185" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F185" s="14">
-        <v>270</v>
-      </c>
-      <c r="G185" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C186,5,1,""),"_",D184,"_hard")</f>
-        <v>sp_tier5_m2_hard</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D186" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E186" s="13">
-        <v>70000</v>
-      </c>
-      <c r="F186" s="13">
-        <v>270</v>
-      </c>
-      <c r="G186" s="12" t="b">
-        <v>0</v>
+      <c r="D186" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E186" s="23">
+        <v>0</v>
+      </c>
+      <c r="F186" s="23">
+        <v>0</v>
+      </c>
+      <c r="G186" s="22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6030,16 +6037,16 @@
       </c>
       <c r="B187" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C187,5,1,""),"_",D187,"_easy")</f>
-        <v>sp_tier5_w1_easy</v>
-      </c>
-      <c r="C187" s="34" t="s">
+        <v>sp_tier5_v1_easy</v>
+      </c>
+      <c r="C187" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E187" s="19">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="F187" s="19">
         <v>0</v>
@@ -6054,19 +6061,19 @@
       </c>
       <c r="B188" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C188,5,1,""),"_",D187,"_medium")</f>
-        <v>sp_tier5_w1_medium</v>
+        <v>sp_tier5_v1_medium</v>
       </c>
       <c r="C188" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E188" s="19">
         <v>50000</v>
       </c>
       <c r="F188" s="19">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G188" s="18" t="b">
         <v>1</v>
@@ -6078,19 +6085,19 @@
       </c>
       <c r="B189" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C189,5,1,""),"_",D187,"_hard")</f>
-        <v>sp_tier5_w1_hard</v>
+        <v>sp_tier5_v1_hard</v>
       </c>
       <c r="C189" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E189" s="19">
         <v>70000</v>
       </c>
       <c r="F189" s="19">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G189" s="18" t="b">
         <v>0</v>
@@ -6102,19 +6109,19 @@
       </c>
       <c r="B190" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C190,5,1,""),"_",D190,"_easy")</f>
-        <v>sp_tier5_w2_easy</v>
+        <v>sp_tier5_v2_easy</v>
       </c>
       <c r="C190" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E190" s="14">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="F190" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G190" s="16" t="b">
         <v>0</v>
@@ -6126,45 +6133,45 @@
       </c>
       <c r="B191" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C191,5,1,""),"_",D190,"_medium")</f>
-        <v>sp_tier5_w2_medium</v>
+        <v>sp_tier5_v2_medium</v>
       </c>
       <c r="C191" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E191" s="14">
         <v>50000</v>
       </c>
       <c r="F191" s="14">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G191" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B192" s="13" t="str">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C192,5,1,""),"_",D190,"_hard")</f>
-        <v>sp_tier5_w2_hard</v>
-      </c>
-      <c r="C192" s="13" t="s">
+        <v>sp_tier5_v2_hard</v>
+      </c>
+      <c r="C192" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D192" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E192" s="13">
+      <c r="D192" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E192" s="14">
         <v>70000</v>
       </c>
-      <c r="F192" s="13">
-        <v>270</v>
-      </c>
-      <c r="G192" s="12" t="b">
+      <c r="F192" s="14">
+        <v>230</v>
+      </c>
+      <c r="G192" s="16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6174,16 +6181,16 @@
       </c>
       <c r="B193" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C193,5,1,""),"_",D193,"_easy")</f>
-        <v>sp_tier5_d1_easy</v>
-      </c>
-      <c r="C193" s="34" t="s">
+        <v>sp_tier5_f1_easy</v>
+      </c>
+      <c r="C193" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E193" s="19">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="F193" s="19">
         <v>0</v>
@@ -6198,19 +6205,19 @@
       </c>
       <c r="B194" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C194,5,1,""),"_",D193,"_medium")</f>
-        <v>sp_tier5_d1_medium</v>
+        <v>sp_tier5_f1_medium</v>
       </c>
       <c r="C194" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E194" s="19">
         <v>50000</v>
       </c>
       <c r="F194" s="19">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G194" s="18" t="b">
         <v>1</v>
@@ -6222,19 +6229,19 @@
       </c>
       <c r="B195" s="19" t="str">
         <f>CONCATENATE("sp_",REPLACE(C195,5,1,""),"_",D193,"_hard")</f>
-        <v>sp_tier5_d1_hard</v>
+        <v>sp_tier5_f1_hard</v>
       </c>
       <c r="C195" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E195" s="19">
         <v>70000</v>
       </c>
       <c r="F195" s="19">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G195" s="18" t="b">
         <v>0</v>
@@ -6246,16 +6253,16 @@
       </c>
       <c r="B196" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C196,5,1,""),"_",D196,"_easy")</f>
-        <v>sp_tier5_d2_easy</v>
+        <v>sp_tier5_f2_easy</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E196" s="14">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="F196" s="14">
         <v>0</v>
@@ -6270,70 +6277,70 @@
       </c>
       <c r="B197" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C197,5,1,""),"_",D196,"_medium")</f>
-        <v>sp_tier5_d2_medium</v>
+        <v>sp_tier5_f2_medium</v>
       </c>
       <c r="C197" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E197" s="14">
         <v>50000</v>
       </c>
       <c r="F197" s="14">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G197" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B198" s="13" t="str">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="14" t="str">
         <f>CONCATENATE("sp_",REPLACE(C198,5,1,""),"_",D196,"_hard")</f>
-        <v>sp_tier5_d2_hard</v>
+        <v>sp_tier5_f2_hard</v>
       </c>
       <c r="C198" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D198" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E198" s="13">
+      <c r="D198" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" s="14">
         <v>70000</v>
       </c>
-      <c r="F198" s="13">
-        <v>270</v>
-      </c>
-      <c r="G198" s="12" t="b">
+      <c r="F198" s="14">
+        <v>230</v>
+      </c>
+      <c r="G198" s="16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B199" s="23" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C199,5,1,""),"_",D199,"_default")</f>
-        <v>sp_tier6_v0_default</v>
-      </c>
-      <c r="C199" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D199" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E199" s="23">
-        <v>0</v>
-      </c>
-      <c r="F199" s="23">
-        <v>0</v>
-      </c>
-      <c r="G199" s="22" t="b">
-        <v>1</v>
+      <c r="A199" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C199,5,1,""),"_",D199,"_easy")</f>
+        <v>sp_tier5_c1_easy</v>
+      </c>
+      <c r="C199" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E199" s="19">
+        <v>7500</v>
+      </c>
+      <c r="F199" s="19">
+        <v>0</v>
+      </c>
+      <c r="G199" s="18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6341,23 +6348,23 @@
         <v>1</v>
       </c>
       <c r="B200" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C200,5,1,""),"_",D200,"_easy")</f>
-        <v>sp_tier6_v1_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C200,5,1,""),"_",D199,"_medium")</f>
+        <v>sp_tier5_c1_medium</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E200" s="19">
-        <v>2500</v>
+        <v>50000</v>
       </c>
       <c r="F200" s="19">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G200" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,46 +6372,46 @@
         <v>1</v>
       </c>
       <c r="B201" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C201,5,1,""),"_",D200,"_medium")</f>
-        <v>sp_tier6_v1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C201,5,1,""),"_",D199,"_hard")</f>
+        <v>sp_tier5_c1_hard</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E201" s="19">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F201" s="19">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="G201" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B202" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C202,5,1,""),"_",D200,"_hard")</f>
-        <v>sp_tier6_v1_hard</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D202" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E202" s="19">
-        <v>70000</v>
-      </c>
-      <c r="F202" s="19">
-        <v>230</v>
-      </c>
-      <c r="G202" s="18" t="b">
+      <c r="A202" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C202,5,1,""),"_",D202,"_easy")</f>
+        <v>sp_tier5_c2_easy</v>
+      </c>
+      <c r="C202" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E202" s="14">
+        <v>7500</v>
+      </c>
+      <c r="F202" s="14">
+        <v>0</v>
+      </c>
+      <c r="G202" s="16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6413,70 +6420,70 @@
         <v>1</v>
       </c>
       <c r="B203" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C203,5,1,""),"_",D203,"_easy")</f>
-        <v>sp_tier6_v2_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C203,5,1,""),"_",D202,"_medium")</f>
+        <v>sp_tier5_c2_medium</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E203" s="14">
-        <v>2500</v>
+        <v>50000</v>
       </c>
       <c r="F203" s="14">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="G203" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B204" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C204,5,1,""),"_",D203,"_medium")</f>
-        <v>sp_tier6_v2_medium</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D204" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E204" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F204" s="14">
-        <v>230</v>
-      </c>
-      <c r="G204" s="16" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C204,5,1,""),"_",D202,"_hard")</f>
+        <v>sp_tier5_c2_hard</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E204" s="13">
+        <v>70000</v>
+      </c>
+      <c r="F204" s="13">
+        <v>270</v>
+      </c>
+      <c r="G204" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B205" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C205,5,1,""),"_",D203,"_hard")</f>
-        <v>sp_tier6_v2_hard</v>
-      </c>
-      <c r="C205" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D205" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E205" s="14">
-        <v>70000</v>
-      </c>
-      <c r="F205" s="14">
-        <v>230</v>
-      </c>
-      <c r="G205" s="16" t="b">
+      <c r="A205" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C205,5,1,""),"_",D205,"_easy")</f>
+        <v>sp_tier5_m1_easy</v>
+      </c>
+      <c r="C205" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E205" s="19">
+        <v>7500</v>
+      </c>
+      <c r="F205" s="19">
+        <v>0</v>
+      </c>
+      <c r="G205" s="18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6485,23 +6492,23 @@
         <v>1</v>
       </c>
       <c r="B206" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C206,5,1,""),"_",D206,"_easy")</f>
-        <v>sp_tier6_f1_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C206,5,1,""),"_",D205,"_medium")</f>
+        <v>sp_tier5_m1_medium</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D206" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E206" s="19">
-        <v>2500</v>
+        <v>50000</v>
       </c>
       <c r="F206" s="19">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G206" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6509,46 +6516,46 @@
         <v>1</v>
       </c>
       <c r="B207" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C207,5,1,""),"_",D206,"_medium")</f>
-        <v>sp_tier6_f1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C207,5,1,""),"_",D205,"_hard")</f>
+        <v>sp_tier5_m1_hard</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E207" s="19">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F207" s="19">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="G207" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B208" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C208,5,1,""),"_",D206,"_hard")</f>
-        <v>sp_tier6_f1_hard</v>
-      </c>
-      <c r="C208" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D208" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E208" s="19">
-        <v>70000</v>
-      </c>
-      <c r="F208" s="19">
-        <v>230</v>
-      </c>
-      <c r="G208" s="18" t="b">
+      <c r="A208" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C208,5,1,""),"_",D208,"_easy")</f>
+        <v>sp_tier5_m2_easy</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E208" s="14">
+        <v>7500</v>
+      </c>
+      <c r="F208" s="14">
+        <v>0</v>
+      </c>
+      <c r="G208" s="16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6557,70 +6564,70 @@
         <v>1</v>
       </c>
       <c r="B209" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C209,5,1,""),"_",D209,"_easy")</f>
-        <v>sp_tier6_f2_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C209,5,1,""),"_",D208,"_medium")</f>
+        <v>sp_tier5_m2_medium</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E209" s="14">
-        <v>2500</v>
+        <v>50000</v>
       </c>
       <c r="F209" s="14">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G209" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B210" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C210,5,1,""),"_",D209,"_medium")</f>
-        <v>sp_tier6_f2_medium</v>
-      </c>
-      <c r="C210" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D210" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E210" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F210" s="14">
-        <v>230</v>
-      </c>
-      <c r="G210" s="16" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C210,5,1,""),"_",D208,"_hard")</f>
+        <v>sp_tier5_m2_hard</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E210" s="13">
+        <v>70000</v>
+      </c>
+      <c r="F210" s="13">
+        <v>270</v>
+      </c>
+      <c r="G210" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C211,5,1,""),"_",D209,"_hard")</f>
-        <v>sp_tier6_f2_hard</v>
-      </c>
-      <c r="C211" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D211" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E211" s="14">
-        <v>70000</v>
-      </c>
-      <c r="F211" s="14">
-        <v>230</v>
-      </c>
-      <c r="G211" s="16" t="b">
+      <c r="A211" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C211,5,1,""),"_",D211,"_easy")</f>
+        <v>sp_tier5_w1_easy</v>
+      </c>
+      <c r="C211" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F211" s="19">
+        <v>0</v>
+      </c>
+      <c r="G211" s="18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6629,23 +6636,23 @@
         <v>1</v>
       </c>
       <c r="B212" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C212,5,1,""),"_",D212,"_easy")</f>
-        <v>sp_tier6_c1_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C212,5,1,""),"_",D211,"_medium")</f>
+        <v>sp_tier5_w1_medium</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E212" s="19">
-        <v>7500</v>
+        <v>50000</v>
       </c>
       <c r="F212" s="19">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G212" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6653,46 +6660,46 @@
         <v>1</v>
       </c>
       <c r="B213" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C213,5,1,""),"_",D212,"_medium")</f>
-        <v>sp_tier6_c1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C213,5,1,""),"_",D211,"_hard")</f>
+        <v>sp_tier5_w1_hard</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E213" s="19">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F213" s="19">
         <v>270</v>
       </c>
       <c r="G213" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B214" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C214,5,1,""),"_",D212,"_hard")</f>
-        <v>sp_tier6_c1_hard</v>
-      </c>
-      <c r="C214" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D214" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E214" s="19">
-        <v>70000</v>
-      </c>
-      <c r="F214" s="19">
-        <v>270</v>
-      </c>
-      <c r="G214" s="18" t="b">
+      <c r="A214" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C214,5,1,""),"_",D214,"_easy")</f>
+        <v>sp_tier5_w2_easy</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D214" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F214" s="14">
+        <v>0</v>
+      </c>
+      <c r="G214" s="16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6701,70 +6708,70 @@
         <v>1</v>
       </c>
       <c r="B215" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C215,5,1,""),"_",D215,"_easy")</f>
-        <v>sp_tier6_c2_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C215,5,1,""),"_",D214,"_medium")</f>
+        <v>sp_tier5_w2_medium</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E215" s="14">
-        <v>7500</v>
+        <v>50000</v>
       </c>
       <c r="F215" s="14">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G215" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B216" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C216,5,1,""),"_",D215,"_medium")</f>
-        <v>sp_tier6_c2_medium</v>
-      </c>
-      <c r="C216" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D216" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E216" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F216" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C216,5,1,""),"_",D214,"_hard")</f>
+        <v>sp_tier5_w2_hard</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="13">
+        <v>70000</v>
+      </c>
+      <c r="F216" s="13">
         <v>270</v>
       </c>
-      <c r="G216" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B217" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C217,5,1,""),"_",D215,"_hard")</f>
-        <v>sp_tier6_c2_hard</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D217" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E217" s="13">
-        <v>70000</v>
-      </c>
-      <c r="F217" s="13">
-        <v>270</v>
-      </c>
-      <c r="G217" s="12" t="b">
+      <c r="G216" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C217,5,1,""),"_",D217,"_easy")</f>
+        <v>sp_tier5_d1_easy</v>
+      </c>
+      <c r="C217" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D217" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E217" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F217" s="19">
+        <v>0</v>
+      </c>
+      <c r="G217" s="18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6773,23 +6780,23 @@
         <v>1</v>
       </c>
       <c r="B218" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C218,5,1,""),"_",D218,"_easy")</f>
-        <v>sp_tier6_m1_easy</v>
-      </c>
-      <c r="C218" s="34" t="s">
-        <v>84</v>
+        <f>CONCATENATE("sp_",REPLACE(C218,5,1,""),"_",D217,"_medium")</f>
+        <v>sp_tier5_d1_medium</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E218" s="19">
-        <v>7500</v>
+        <v>50000</v>
       </c>
       <c r="F218" s="19">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G218" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6797,46 +6804,46 @@
         <v>1</v>
       </c>
       <c r="B219" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C219,5,1,""),"_",D218,"_medium")</f>
-        <v>sp_tier6_m1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C219,5,1,""),"_",D217,"_hard")</f>
+        <v>sp_tier5_d1_hard</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E219" s="19">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F219" s="19">
         <v>270</v>
       </c>
       <c r="G219" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B220" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C220,5,1,""),"_",D218,"_hard")</f>
-        <v>sp_tier6_m1_hard</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D220" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E220" s="19">
-        <v>70000</v>
-      </c>
-      <c r="F220" s="19">
-        <v>270</v>
-      </c>
-      <c r="G220" s="18" t="b">
+      <c r="A220" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C220,5,1,""),"_",D220,"_easy")</f>
+        <v>sp_tier5_d2_easy</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E220" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F220" s="14">
+        <v>0</v>
+      </c>
+      <c r="G220" s="16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6845,70 +6852,70 @@
         <v>1</v>
       </c>
       <c r="B221" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C221,5,1,""),"_",D221,"_easy")</f>
-        <v>sp_tier6_m2_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C221,5,1,""),"_",D220,"_medium")</f>
+        <v>sp_tier5_d2_medium</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E221" s="14">
-        <v>7500</v>
+        <v>50000</v>
       </c>
       <c r="F221" s="14">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G221" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C222,5,1,""),"_",D221,"_medium")</f>
-        <v>sp_tier6_m2_medium</v>
-      </c>
-      <c r="C222" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D222" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E222" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F222" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C222,5,1,""),"_",D220,"_hard")</f>
+        <v>sp_tier5_d2_hard</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E222" s="13">
+        <v>70000</v>
+      </c>
+      <c r="F222" s="13">
         <v>270</v>
       </c>
-      <c r="G222" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B223" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C223,5,1,""),"_",D221,"_hard")</f>
-        <v>sp_tier6_m2_hard</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D223" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E223" s="13">
-        <v>70000</v>
-      </c>
-      <c r="F223" s="13">
-        <v>270</v>
-      </c>
-      <c r="G223" s="12" t="b">
+      <c r="G222" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C223,5,1,""),"_",D223,"_easy")</f>
+        <v>sp_tier5_s1_easy</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E223" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F223" s="19">
+        <v>0</v>
+      </c>
+      <c r="G223" s="18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6917,23 +6924,23 @@
         <v>1</v>
       </c>
       <c r="B224" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C224,5,1,""),"_",D224,"_easy")</f>
-        <v>sp_tier6_w1_easy</v>
-      </c>
-      <c r="C224" s="34" t="s">
-        <v>84</v>
+        <f>CONCATENATE("sp_",REPLACE(C224,5,1,""),"_",D223,"_medium")</f>
+        <v>sp_tier5_s1_medium</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="E224" s="19">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F224" s="19">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G224" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6941,46 +6948,46 @@
         <v>1</v>
       </c>
       <c r="B225" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C225,5,1,""),"_",D224,"_medium")</f>
-        <v>sp_tier6_w1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C225,5,1,""),"_",D223,"_hard")</f>
+        <v>sp_tier5_s1_hard</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="E225" s="19">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F225" s="19">
         <v>270</v>
       </c>
       <c r="G225" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B226" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C226,5,1,""),"_",D224,"_hard")</f>
-        <v>sp_tier6_w1_hard</v>
-      </c>
-      <c r="C226" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D226" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E226" s="19">
-        <v>70000</v>
-      </c>
-      <c r="F226" s="19">
-        <v>270</v>
-      </c>
-      <c r="G226" s="18" t="b">
+      <c r="A226" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C226,5,1,""),"_",D226,"_easy")</f>
+        <v>sp_tier5_s2_easy</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E226" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F226" s="14">
+        <v>0</v>
+      </c>
+      <c r="G226" s="16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6989,70 +6996,70 @@
         <v>1</v>
       </c>
       <c r="B227" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C227,5,1,""),"_",D227,"_easy")</f>
-        <v>sp_tier6_w2_easy</v>
+        <f>CONCATENATE("sp_",REPLACE(C227,5,1,""),"_",D226,"_medium")</f>
+        <v>sp_tier5_s2_medium</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="E227" s="14">
+        <v>50000</v>
+      </c>
+      <c r="F227" s="14">
+        <v>270</v>
+      </c>
+      <c r="G227" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C228,5,1,""),"_",D226,"_hard")</f>
+        <v>sp_tier5_s2_hard</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E228" s="13">
+        <v>70000</v>
+      </c>
+      <c r="F228" s="13">
+        <v>270</v>
+      </c>
+      <c r="G228" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C229,5,1,""),"_",D229,"_easy")</f>
+        <v>sp_tier5_s3_easy</v>
+      </c>
+      <c r="C229" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D229" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E229" s="19">
         <v>10000</v>
       </c>
-      <c r="F227" s="14">
-        <v>0</v>
-      </c>
-      <c r="G227" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B228" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C228,5,1,""),"_",D227,"_medium")</f>
-        <v>sp_tier6_w2_medium</v>
-      </c>
-      <c r="C228" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D228" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="14">
-        <v>50000</v>
-      </c>
-      <c r="F228" s="14">
-        <v>270</v>
-      </c>
-      <c r="G228" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B229" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C229,5,1,""),"_",D227,"_hard")</f>
-        <v>sp_tier6_w2_hard</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D229" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="13">
-        <v>70000</v>
-      </c>
-      <c r="F229" s="13">
-        <v>270</v>
-      </c>
-      <c r="G229" s="12" t="b">
+      <c r="F229" s="19">
+        <v>0</v>
+      </c>
+      <c r="G229" s="18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7061,318 +7068,1335 @@
         <v>1</v>
       </c>
       <c r="B230" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C230,5,1,""),"_",D230,"_easy")</f>
-        <v>sp_tier6_d1_easy</v>
-      </c>
-      <c r="C230" s="34" t="s">
-        <v>84</v>
+        <f>CONCATENATE("sp_",REPLACE(C230,5,1,""),"_",D229,"_medium")</f>
+        <v>sp_tier5_s3_medium</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="E230" s="19">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F230" s="19">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G230" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B231" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C231,5,1,""),"_",D230,"_medium")</f>
-        <v>sp_tier6_d1_medium</v>
+        <f>CONCATENATE("sp_",REPLACE(C231,5,1,""),"_",D229,"_hard")</f>
+        <v>sp_tier5_s3_hard</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D231" s="19" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="E231" s="19">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F231" s="19">
         <v>270</v>
       </c>
       <c r="G231" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B232" s="19" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C232,5,1,""),"_",D230,"_hard")</f>
+      <c r="A232" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="23" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C232,5,1,""),"_",D232,"_default")</f>
+        <v>sp_tier6_v0_default</v>
+      </c>
+      <c r="C232" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D232" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E232" s="23">
+        <v>0</v>
+      </c>
+      <c r="F232" s="23">
+        <v>0</v>
+      </c>
+      <c r="G232" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C233,5,1,""),"_",D233,"_easy")</f>
+        <v>sp_tier6_v1_easy</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D233" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E233" s="19">
+        <v>2500</v>
+      </c>
+      <c r="F233" s="19">
+        <v>0</v>
+      </c>
+      <c r="G233" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C234,5,1,""),"_",D233,"_medium")</f>
+        <v>sp_tier6_v1_medium</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E234" s="19">
+        <v>50000</v>
+      </c>
+      <c r="F234" s="19">
+        <v>230</v>
+      </c>
+      <c r="G234" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C235,5,1,""),"_",D233,"_hard")</f>
+        <v>sp_tier6_v1_hard</v>
+      </c>
+      <c r="C235" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D235" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E235" s="19">
+        <v>70000</v>
+      </c>
+      <c r="F235" s="19">
+        <v>230</v>
+      </c>
+      <c r="G235" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C236,5,1,""),"_",D236,"_easy")</f>
+        <v>sp_tier6_v2_easy</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E236" s="14">
+        <v>2500</v>
+      </c>
+      <c r="F236" s="14">
+        <v>5</v>
+      </c>
+      <c r="G236" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C237,5,1,""),"_",D236,"_medium")</f>
+        <v>sp_tier6_v2_medium</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E237" s="14">
+        <v>50000</v>
+      </c>
+      <c r="F237" s="14">
+        <v>230</v>
+      </c>
+      <c r="G237" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C238,5,1,""),"_",D236,"_hard")</f>
+        <v>sp_tier6_v2_hard</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E238" s="14">
+        <v>70000</v>
+      </c>
+      <c r="F238" s="14">
+        <v>230</v>
+      </c>
+      <c r="G238" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C239,5,1,""),"_",D239,"_easy")</f>
+        <v>sp_tier6_f1_easy</v>
+      </c>
+      <c r="C239" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D239" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E239" s="19">
+        <v>2500</v>
+      </c>
+      <c r="F239" s="19">
+        <v>0</v>
+      </c>
+      <c r="G239" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C240,5,1,""),"_",D239,"_medium")</f>
+        <v>sp_tier6_f1_medium</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D240" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E240" s="19">
+        <v>50000</v>
+      </c>
+      <c r="F240" s="19">
+        <v>230</v>
+      </c>
+      <c r="G240" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C241,5,1,""),"_",D239,"_hard")</f>
+        <v>sp_tier6_f1_hard</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D241" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E241" s="19">
+        <v>70000</v>
+      </c>
+      <c r="F241" s="19">
+        <v>230</v>
+      </c>
+      <c r="G241" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C242,5,1,""),"_",D242,"_easy")</f>
+        <v>sp_tier6_f2_easy</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E242" s="14">
+        <v>2500</v>
+      </c>
+      <c r="F242" s="14">
+        <v>0</v>
+      </c>
+      <c r="G242" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C243,5,1,""),"_",D242,"_medium")</f>
+        <v>sp_tier6_f2_medium</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E243" s="14">
+        <v>50000</v>
+      </c>
+      <c r="F243" s="14">
+        <v>230</v>
+      </c>
+      <c r="G243" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C244,5,1,""),"_",D242,"_hard")</f>
+        <v>sp_tier6_f2_hard</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E244" s="14">
+        <v>70000</v>
+      </c>
+      <c r="F244" s="14">
+        <v>230</v>
+      </c>
+      <c r="G244" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C245,5,1,""),"_",D245,"_easy")</f>
+        <v>sp_tier6_c1_easy</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D245" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E245" s="19">
+        <v>7500</v>
+      </c>
+      <c r="F245" s="19">
+        <v>0</v>
+      </c>
+      <c r="G245" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C246,5,1,""),"_",D245,"_medium")</f>
+        <v>sp_tier6_c1_medium</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D246" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E246" s="19">
+        <v>50000</v>
+      </c>
+      <c r="F246" s="19">
+        <v>270</v>
+      </c>
+      <c r="G246" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C247,5,1,""),"_",D245,"_hard")</f>
+        <v>sp_tier6_c1_hard</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D247" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E247" s="19">
+        <v>70000</v>
+      </c>
+      <c r="F247" s="19">
+        <v>270</v>
+      </c>
+      <c r="G247" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C248,5,1,""),"_",D248,"_easy")</f>
+        <v>sp_tier6_c2_easy</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E248" s="14">
+        <v>7500</v>
+      </c>
+      <c r="F248" s="14">
+        <v>0</v>
+      </c>
+      <c r="G248" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C249,5,1,""),"_",D248,"_medium")</f>
+        <v>sp_tier6_c2_medium</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D249" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E249" s="14">
+        <v>50000</v>
+      </c>
+      <c r="F249" s="14">
+        <v>270</v>
+      </c>
+      <c r="G249" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C250,5,1,""),"_",D248,"_hard")</f>
+        <v>sp_tier6_c2_hard</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E250" s="13">
+        <v>70000</v>
+      </c>
+      <c r="F250" s="13">
+        <v>270</v>
+      </c>
+      <c r="G250" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C251,5,1,""),"_",D251,"_easy")</f>
+        <v>sp_tier6_m1_easy</v>
+      </c>
+      <c r="C251" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D251" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E251" s="19">
+        <v>7500</v>
+      </c>
+      <c r="F251" s="19">
+        <v>0</v>
+      </c>
+      <c r="G251" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C252,5,1,""),"_",D251,"_medium")</f>
+        <v>sp_tier6_m1_medium</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D252" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E252" s="19">
+        <v>50000</v>
+      </c>
+      <c r="F252" s="19">
+        <v>270</v>
+      </c>
+      <c r="G252" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C253,5,1,""),"_",D251,"_hard")</f>
+        <v>sp_tier6_m1_hard</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D253" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E253" s="19">
+        <v>70000</v>
+      </c>
+      <c r="F253" s="19">
+        <v>270</v>
+      </c>
+      <c r="G253" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B254" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C254,5,1,""),"_",D254,"_easy")</f>
+        <v>sp_tier6_m2_easy</v>
+      </c>
+      <c r="C254" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D254" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E254" s="14">
+        <v>7500</v>
+      </c>
+      <c r="F254" s="14">
+        <v>0</v>
+      </c>
+      <c r="G254" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C255,5,1,""),"_",D254,"_medium")</f>
+        <v>sp_tier6_m2_medium</v>
+      </c>
+      <c r="C255" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D255" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E255" s="14">
+        <v>50000</v>
+      </c>
+      <c r="F255" s="14">
+        <v>270</v>
+      </c>
+      <c r="G255" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C256,5,1,""),"_",D254,"_hard")</f>
+        <v>sp_tier6_m2_hard</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E256" s="13">
+        <v>70000</v>
+      </c>
+      <c r="F256" s="13">
+        <v>270</v>
+      </c>
+      <c r="G256" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C257,5,1,""),"_",D257,"_easy")</f>
+        <v>sp_tier6_w1_easy</v>
+      </c>
+      <c r="C257" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D257" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E257" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F257" s="19">
+        <v>0</v>
+      </c>
+      <c r="G257" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C258,5,1,""),"_",D257,"_medium")</f>
+        <v>sp_tier6_w1_medium</v>
+      </c>
+      <c r="C258" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D258" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E258" s="19">
+        <v>50000</v>
+      </c>
+      <c r="F258" s="19">
+        <v>270</v>
+      </c>
+      <c r="G258" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C259,5,1,""),"_",D257,"_hard")</f>
+        <v>sp_tier6_w1_hard</v>
+      </c>
+      <c r="C259" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D259" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E259" s="19">
+        <v>70000</v>
+      </c>
+      <c r="F259" s="19">
+        <v>270</v>
+      </c>
+      <c r="G259" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B260" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C260,5,1,""),"_",D260,"_easy")</f>
+        <v>sp_tier6_w2_easy</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D260" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F260" s="14">
+        <v>0</v>
+      </c>
+      <c r="G260" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B261" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C261,5,1,""),"_",D260,"_medium")</f>
+        <v>sp_tier6_w2_medium</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D261" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="14">
+        <v>50000</v>
+      </c>
+      <c r="F261" s="14">
+        <v>270</v>
+      </c>
+      <c r="G261" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C262,5,1,""),"_",D260,"_hard")</f>
+        <v>sp_tier6_w2_hard</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="13">
+        <v>70000</v>
+      </c>
+      <c r="F262" s="13">
+        <v>270</v>
+      </c>
+      <c r="G262" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B263" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C263,5,1,""),"_",D263,"_easy")</f>
+        <v>sp_tier6_d1_easy</v>
+      </c>
+      <c r="C263" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D263" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E263" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F263" s="19">
+        <v>0</v>
+      </c>
+      <c r="G263" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C264,5,1,""),"_",D263,"_medium")</f>
+        <v>sp_tier6_d1_medium</v>
+      </c>
+      <c r="C264" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D264" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E264" s="19">
+        <v>50000</v>
+      </c>
+      <c r="F264" s="19">
+        <v>270</v>
+      </c>
+      <c r="G264" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C265,5,1,""),"_",D263,"_hard")</f>
         <v>sp_tier6_d1_hard</v>
       </c>
-      <c r="C232" s="19" t="s">
+      <c r="C265" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D232" s="19" t="s">
+      <c r="D265" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E232" s="19">
+      <c r="E265" s="19">
         <v>70000</v>
       </c>
-      <c r="F232" s="19">
+      <c r="F265" s="19">
         <v>270</v>
       </c>
-      <c r="G232" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B233" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C233,5,1,""),"_",D233,"_easy")</f>
+      <c r="G265" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B266" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C266,5,1,""),"_",D266,"_easy")</f>
         <v>sp_tier6_d2_easy</v>
       </c>
-      <c r="C233" s="14" t="s">
+      <c r="C266" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D233" s="14" t="s">
+      <c r="D266" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E233" s="14">
+      <c r="E266" s="14">
         <v>10000</v>
       </c>
-      <c r="F233" s="14">
-        <v>0</v>
-      </c>
-      <c r="G233" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B234" s="14" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C234,5,1,""),"_",D233,"_medium")</f>
+      <c r="F266" s="14">
+        <v>0</v>
+      </c>
+      <c r="G266" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B267" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C267,5,1,""),"_",D266,"_medium")</f>
         <v>sp_tier6_d2_medium</v>
       </c>
-      <c r="C234" s="14" t="s">
+      <c r="C267" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D234" s="14" t="s">
+      <c r="D267" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E234" s="14">
+      <c r="E267" s="14">
         <v>50000</v>
       </c>
-      <c r="F234" s="14">
+      <c r="F267" s="14">
         <v>270</v>
       </c>
-      <c r="G234" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B235" s="13" t="str">
-        <f>CONCATENATE("sp_",REPLACE(C235,5,1,""),"_",D233,"_hard")</f>
+      <c r="G267" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C268,5,1,""),"_",D266,"_hard")</f>
         <v>sp_tier6_d2_hard</v>
       </c>
-      <c r="C235" s="13" t="s">
+      <c r="C268" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D235" s="13" t="s">
+      <c r="D268" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E235" s="13">
+      <c r="E268" s="13">
         <v>70000</v>
       </c>
-      <c r="F235" s="13">
+      <c r="F268" s="13">
         <v>270</v>
       </c>
-      <c r="G235" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B238" s="2" t="s">
+      <c r="G268" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B269" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C269,5,1,""),"_",D269,"_easy")</f>
+        <v>sp_tier6_s1_easy</v>
+      </c>
+      <c r="C269" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D269" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E269" s="19">
+        <v>2500</v>
+      </c>
+      <c r="F269" s="19">
+        <v>0</v>
+      </c>
+      <c r="G269" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B270" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C270,5,1,""),"_",D269,"_medium")</f>
+        <v>sp_tier6_s1_medium</v>
+      </c>
+      <c r="C270" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D270" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E270" s="19">
+        <v>50000</v>
+      </c>
+      <c r="F270" s="19">
+        <v>230</v>
+      </c>
+      <c r="G270" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B271" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C271,5,1,""),"_",D269,"_hard")</f>
+        <v>sp_tier6_s1_hard</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E271" s="19">
+        <v>70000</v>
+      </c>
+      <c r="F271" s="19">
+        <v>230</v>
+      </c>
+      <c r="G271" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C272,5,1,""),"_",D272,"_easy")</f>
+        <v>sp_tier6_s2_easy</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D272" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E272" s="14">
+        <v>2500</v>
+      </c>
+      <c r="F272" s="14">
+        <v>0</v>
+      </c>
+      <c r="G272" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="14" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C273,5,1,""),"_",D272,"_medium")</f>
+        <v>sp_tier6_s2_medium</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D273" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E273" s="14">
+        <v>50000</v>
+      </c>
+      <c r="F273" s="14">
+        <v>230</v>
+      </c>
+      <c r="G273" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" s="13" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C274,5,1,""),"_",D272,"_hard")</f>
+        <v>sp_tier6_s2_hard</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E274" s="14">
+        <v>70000</v>
+      </c>
+      <c r="F274" s="14">
+        <v>230</v>
+      </c>
+      <c r="G274" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B275" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C275,5,1,""),"_",D275,"_easy")</f>
+        <v>sp_tier6_s3_easy</v>
+      </c>
+      <c r="C275" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D275" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E275" s="19">
+        <v>2500</v>
+      </c>
+      <c r="F275" s="19">
+        <v>0</v>
+      </c>
+      <c r="G275" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C276,5,1,""),"_",D275,"_medium")</f>
+        <v>sp_tier6_s3_medium</v>
+      </c>
+      <c r="C276" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D276" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E276" s="19">
+        <v>50000</v>
+      </c>
+      <c r="F276" s="19">
+        <v>230</v>
+      </c>
+      <c r="G276" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" s="19" t="str">
+        <f>CONCATENATE("sp_",REPLACE(C277,5,1,""),"_",D275,"_hard")</f>
+        <v>sp_tier6_s3_hard</v>
+      </c>
+      <c r="C277" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E277" s="19">
+        <v>70000</v>
+      </c>
+      <c r="F277" s="19">
+        <v>230</v>
+      </c>
+      <c r="G277" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="37"/>
+      <c r="B278" s="38"/>
+      <c r="C278" s="38"/>
+      <c r="D278" s="38"/>
+      <c r="E278" s="38"/>
+      <c r="F278" s="38"/>
+      <c r="G278" s="38"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B279" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C238" s="11" t="s">
+      <c r="C279" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D238" s="11" t="s">
+      <c r="D279" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E279" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>23</v>
       </c>
-      <c r="B239">
+      <c r="B280">
         <v>7500</v>
       </c>
-      <c r="C239">
+      <c r="C280">
         <v>2500</v>
       </c>
-      <c r="D239">
+      <c r="D280">
         <v>10000</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E280" t="s">
         <v>22</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F280" t="s">
         <v>7</v>
       </c>
-      <c r="G239">
+      <c r="G280">
         <v>120</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>21</v>
       </c>
-      <c r="B240">
+      <c r="B281">
         <v>30000</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F281" t="s">
         <v>6</v>
       </c>
-      <c r="G240">
+      <c r="G281">
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>20</v>
       </c>
-      <c r="B241">
+      <c r="B282">
         <v>50000</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F282" t="s">
         <v>5</v>
       </c>
-      <c r="G241">
+      <c r="G282">
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F242" t="s">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F283" t="s">
         <v>4</v>
       </c>
-      <c r="G242">
+      <c r="G283">
         <v>230</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>19</v>
       </c>
-      <c r="B243">
+      <c r="B284">
         <v>3000</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="C284" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E284" t="s">
         <v>17</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F284" t="s">
         <v>7</v>
       </c>
-      <c r="G243">
+      <c r="G284">
         <v>150</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>16</v>
       </c>
-      <c r="B244">
+      <c r="B285">
         <v>15000</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C285" t="s">
         <v>15</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F285" t="s">
         <v>6</v>
       </c>
-      <c r="G244">
+      <c r="G285">
         <v>200</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>14</v>
       </c>
-      <c r="B245">
+      <c r="B286">
         <v>30000</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C286" t="s">
         <v>13</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F286" t="s">
         <v>5</v>
       </c>
-      <c r="G245">
+      <c r="G286">
         <v>230</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>12</v>
       </c>
-      <c r="B246">
+      <c r="B287">
         <v>40000</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C287" t="s">
         <v>11</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F287" t="s">
         <v>4</v>
       </c>
-      <c r="G246">
+      <c r="G287">
         <v>270</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>10</v>
       </c>
-      <c r="B247">
+      <c r="B288">
         <v>5000</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C288" t="s">
         <v>9</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E288" t="s">
         <v>8</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F288" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F248" t="s">
+    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F289" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F249" t="s">
+    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F290" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F250" t="s">
+    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F291" t="s">
         <v>4</v>
       </c>
     </row>
